--- a/Översikt ÖSTHAMMAR.xlsx
+++ b/Översikt ÖSTHAMMAR.xlsx
@@ -575,7 +575,7 @@
         <v>45106</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         <v>45590</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>45660</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>45439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45575</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>45681</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>46048.35861111111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45996.83012731482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45106</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>45572</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44482</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>44938</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>45895.57082175926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>45895.55805555556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>44771</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>45226</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45622</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>45660</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>45746</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>46009</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45746</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44387</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>44779</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>45891.56333333333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>45205</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>45076</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>45198</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>44819.44055555556</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44511</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44614</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>45238</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44662</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>45804.79280092593</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>45947.57583333334</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44727</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44837</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>46030.66722222222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>45076</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44875</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>44684</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>44376</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>45999.56931712963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>44559</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>45468</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44858</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>45617</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44474</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>45799.66607638889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>45412</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>44984.43856481482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44376</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>45362.53928240741</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>45190</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>46056.44011574074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44739</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44515.45704861111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>44778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>45425.63697916667</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>45677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>45898.69215277778</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45775.63983796296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>45840.68208333333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>45880</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>44644</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>45975.69306712963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>45499</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>45362.37055555556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>45999.58256944444</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>46001.47858796296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>45468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>44525</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>45063</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>44555</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>45063</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44729.44149305556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44235</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>44813</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44501</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>44455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>44874</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>44455</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44606</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>45070</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>45898.58630787037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>45831.45510416666</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45583.33221064815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44985</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>45957.544375</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44607</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>44712</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45384</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44728</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>45078</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>46001.51974537037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>45520</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>46048.46175925926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>45013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44572.57641203704</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>45135</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>46002</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>44991</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10317,7 +10317,7 @@
         <v>46056.38474537037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44875</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>45156</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44517</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>45446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>44536</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45107</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44509</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>45393</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11101,7 +11101,7 @@
         <v>44555.80506944445</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11158,7 +11158,7 @@
         <v>44536</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11215,7 +11215,7 @@
         <v>44732.48165509259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>44729</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11334,7 +11334,7 @@
         <v>44614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11391,7 +11391,7 @@
         <v>44622</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44501.4250462963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11515,7 +11515,7 @@
         <v>44687.68890046296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11572,7 +11572,7 @@
         <v>44687</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11629,7 +11629,7 @@
         <v>44622</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>44664</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>44651.88756944444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>44644</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44868</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44491.53787037037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44498</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44838.82126157408</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>44336</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>44577.83829861111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44461</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>44691</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>44368</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44525.48695601852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>44661.73925925926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>44347</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>44649.90252314815</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>44622</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>44342.59954861111</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44342.62907407407</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44622</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44613.51798611111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44243</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44376.32519675926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44278</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44588</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44725.45895833334</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>44852.59962962963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>44519.3990162037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>44598.8281712963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44450</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44462</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44694</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>44659</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>44512.6108912037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44692.49559027778</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44432</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44865</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>44715.91158564815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44664</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44757.75236111111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44589.66446759259</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44873.67842592593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44425.37835648148</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44661.74027777778</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>44734.49601851852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>44501.42905092592</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>44809</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>44809.63373842592</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44813</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>44810</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>44635.68695601852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44712.51509259259</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44669.36354166667</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44687.87017361111</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>44728</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44608</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44872.62109953703</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>44235</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>44770</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>44739</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44467</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>44620.35590277778</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>44635.39946759259</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>44578</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>44687.86751157408</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>44309.28576388889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>44676</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>44643.4372337963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>44669</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44337</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>44715</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>44466</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44792</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44482.47577546296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44809</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>45758.33304398148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>45208.70452546296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44775</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>45068</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>45621.43098379629</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>45271</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44591.51854166666</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>44576.78626157407</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>45114.79793981482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44560.4502199074</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>45448</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>45775.44483796296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44739</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>45107</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44991.62203703704</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>44755</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>45110.43907407407</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>45054</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44783.69886574074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44915.59645833333</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>45212.71481481481</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45711.52333333333</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>45191</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44651.5625</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44599.72306712963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45045</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>44643.93269675926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>44599</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44651.40924768519</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>45250.58635416667</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>45684</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44768.88685185185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>45146.68921296296</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44706</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>45670</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44860</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>45670</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>45665.58465277778</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>45685.68193287037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>45154</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>45735</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>45230.77258101852</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>44814.5991087963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>45669.69075231482</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>45670</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>45799.66876157407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>45162.6177662037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>45733.41601851852</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>44874</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>45799.56347222222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>45734.38159722222</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>45524</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>45574.65427083334</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>45749.84232638889</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>45257</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         <v>45740.51895833333</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>44746.65873842593</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
         <v>45632.59780092593</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>45212.71241898148</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>45530.68873842592</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>45772</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45805.68263888889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>45194.59335648148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>45805.65960648148</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>44287</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>45804.77559027778</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45807.56275462963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>45807.56612268519</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20452,7 +20452,7 @@
         <v>44991.9321412037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>45811</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>45516.72097222223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44511</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20685,7 +20685,7 @@
         <v>44600.35755787037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>45811</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>45811.63436342592</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45812.62390046296</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45812.68268518519</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44533.44887731481</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>44555.80339120371</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45812.62694444445</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45812.62571759259</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45329</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45812.66628472223</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45812.66829861111</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45812.6850462963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>45813.48471064815</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>45063.65543981481</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>45561</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44308</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>45895.54085648148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>45455</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>45895.53020833333</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>45895.53689814815</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>45895.65013888889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>45895.65179398148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>45817.48384259259</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>45894.34747685185</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>45337.36831018519</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>45894.40133101852</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22279,7 +22279,7 @@
         <v>45817.40178240741</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>45817.32150462963</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22403,7 +22403,7 @@
         <v>45895.57736111111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22460,7 +22460,7 @@
         <v>45817.48454861111</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44515</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>45708</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45813.4278125</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>45896.47878472223</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>45819</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>44572.5827662037</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>45544</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>45901.54751157408</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>45462</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>45751</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>45793.41719907407</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>45713.4196875</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>45820.39076388889</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>45820.39540509259</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>45821.43233796296</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>45821.44159722222</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>45820</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45821.4384375</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>45797.64908564815</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23655,7 +23655,7 @@
         <v>45797.65774305556</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23712,7 +23712,7 @@
         <v>45821.43973379629</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44770.42166666667</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
         <v>44560.43136574074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44365</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>45797.63553240741</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>45812.6672337963</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>45419.44106481481</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>44953.48179398148</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>45817.82967592592</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>45813.39756944445</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>45909.48989583334</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>45824</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>45691</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
         <v>45909.33440972222</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24545,7 +24545,7 @@
         <v>45813.39273148148</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>45825.63803240741</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>45152.37296296296</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>45842.62363425926</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>45911.66671296296</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>45813.38521990741</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>45911.68295138889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24954,7 +24954,7 @@
         <v>44970</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>45827.40902777778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>45093.47947916666</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>45758.32645833334</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44308</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>45063.47773148148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>45758.33583333333</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>45337.41784722222</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>45379.61878472222</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25487,7 +25487,7 @@
         <v>45831.45965277778</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25544,7 +25544,7 @@
         <v>45916.66152777777</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         <v>45659</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25663,7 +25663,7 @@
         <v>45830.8558912037</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25720,7 +25720,7 @@
         <v>45919.39731481481</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25777,7 +25777,7 @@
         <v>45830.8500462963</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>45358</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>45520</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>45918.54903935185</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>45919.40252314815</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>45923.44583333333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26139,7 +26139,7 @@
         <v>45923.44844907407</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>45075</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>45609.55065972222</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44643</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>45678</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>45832.89476851852</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>45923.44094907407</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>45757.40733796296</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26610,7 +26610,7 @@
         <v>45384</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26667,7 +26667,7 @@
         <v>45833.68211805556</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>45833.43527777777</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26781,7 +26781,7 @@
         <v>44664</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44613.77238425926</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>45666</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>45924.39706018518</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45520</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44613</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>45225</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27185,7 +27185,7 @@
         <v>45924.52100694444</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>45148.64976851852</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27309,7 +27309,7 @@
         <v>45924.52010416667</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>45927.00606481481</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>45685.66459490741</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27485,7 +27485,7 @@
         <v>45686</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45341.70582175926</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45834.67556712963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>45758.32872685185</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>45758.33064814815</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>45244.56943287037</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27842,7 +27842,7 @@
         <v>45102.33054398148</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27904,7 +27904,7 @@
         <v>45102.59896990741</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44894.68043981482</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>45930.56626157407</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>45835.34184027778</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>45835.3554050926</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45930.56592592593</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>45930.56607638889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>45813.37517361111</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>44496</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45572</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45931.47211805556</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45931.47542824074</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45593</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>45202</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>45839.37740740741</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>44963.62001157407</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>44874.38325231482</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>44341.590625</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>45936.55887731481</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45936</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>44896.56266203704</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>44896.57527777777</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45695</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>45841.55199074074</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45840.41451388889</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45840.68381944444</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45937.43621527778</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>44461</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>45937.43274305556</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29602,7 +29602,7 @@
         <v>45939.58928240741</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29659,7 +29659,7 @@
         <v>45187.71274305556</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29721,7 +29721,7 @@
         <v>45770.4015625</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29783,7 +29783,7 @@
         <v>45929.5775</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29840,7 +29840,7 @@
         <v>45678</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29897,7 +29897,7 @@
         <v>45807</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29954,7 +29954,7 @@
         <v>45940.37303240741</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30011,7 +30011,7 @@
         <v>45842.97236111111</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30068,7 +30068,7 @@
         <v>45102</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30130,7 +30130,7 @@
         <v>45805.67305555556</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         <v>45759.56894675926</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30244,7 +30244,7 @@
         <v>45760.55626157407</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         <v>45842.98429398148</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30363,7 +30363,7 @@
         <v>45712.57872685185</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30420,7 +30420,7 @@
         <v>45233.33221064815</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         <v>45516.57682870371</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>45947.57833333333</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44959.83037037037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30668,7 +30668,7 @@
         <v>44991</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30730,7 +30730,7 @@
         <v>45467</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30787,7 +30787,7 @@
         <v>45719.59866898148</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30844,7 +30844,7 @@
         <v>44495</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30906,7 +30906,7 @@
         <v>45711.51902777778</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30968,7 +30968,7 @@
         <v>45711.53565972222</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31030,7 +31030,7 @@
         <v>45770.65739583333</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31092,7 +31092,7 @@
         <v>45950.45677083333</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31149,7 +31149,7 @@
         <v>45949.00917824074</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31206,7 +31206,7 @@
         <v>44950</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31268,7 +31268,7 @@
         <v>45951.56679398148</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31330,7 +31330,7 @@
         <v>45949.71568287037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>45948.99313657408</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>45079.50289351852</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>45519</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31568,7 +31568,7 @@
         <v>45519</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>45949.70971064815</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31692,7 +31692,7 @@
         <v>45953.67853009259</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31754,7 +31754,7 @@
         <v>44725</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31811,7 +31811,7 @@
         <v>45904.50652777778</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31868,7 +31868,7 @@
         <v>45433</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31925,7 +31925,7 @@
         <v>45746</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31982,7 +31982,7 @@
         <v>45866.48244212963</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32039,7 +32039,7 @@
         <v>45759.56462962963</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32096,7 +32096,7 @@
         <v>44928.40917824074</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32153,7 +32153,7 @@
         <v>44928.41822916667</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32210,7 +32210,7 @@
         <v>45869.4290625</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32267,7 +32267,7 @@
         <v>45621.42747685185</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32329,7 +32329,7 @@
         <v>45520.50712962963</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32391,7 +32391,7 @@
         <v>45872.47782407407</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32453,7 +32453,7 @@
         <v>45519.81043981481</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32515,7 +32515,7 @@
         <v>45112.86422453704</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32577,7 +32577,7 @@
         <v>45872</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32639,7 +32639,7 @@
         <v>45872.48738425926</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32701,7 +32701,7 @@
         <v>44476.3632175926</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32763,7 +32763,7 @@
         <v>45646.47936342593</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>45872</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32882,7 +32882,7 @@
         <v>44644</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32939,7 +32939,7 @@
         <v>45695</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33016,7 +33016,7 @@
         <v>45575.58836805556</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44687.78673611111</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33130,7 +33130,7 @@
         <v>45372</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33187,7 +33187,7 @@
         <v>45362.36296296296</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33244,7 +33244,7 @@
         <v>45762.5966087963</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33301,7 +33301,7 @@
         <v>45960</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33358,7 +33358,7 @@
         <v>45102.58728009259</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>45960</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>45960</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33534,7 +33534,7 @@
         <v>45961</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33591,7 +33591,7 @@
         <v>45880</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33648,7 +33648,7 @@
         <v>44903</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33705,7 +33705,7 @@
         <v>45496</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33767,7 +33767,7 @@
         <v>45960.64431712963</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>45960.64520833334</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33891,7 +33891,7 @@
         <v>44591</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33948,7 +33948,7 @@
         <v>45964.63251157408</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>45880.70917824074</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>45965.74545138889</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34124,7 +34124,7 @@
         <v>45230.76862268519</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>45174.62788194444</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>45880.7505787037</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>45040.47081018519</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>45090</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>45218.5586574074</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
         <v>45239</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45044</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34590,7 +34590,7 @@
         <v>45691</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>44905.50363425926</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>45966.37258101852</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45966.37548611111</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45755.64612268518</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34885,7 +34885,7 @@
         <v>45969.76908564815</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34947,7 +34947,7 @@
         <v>45482</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35009,7 +35009,7 @@
         <v>44970.39591435185</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35066,7 +35066,7 @@
         <v>45968.48032407407</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35123,7 +35123,7 @@
         <v>45572</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35180,7 +35180,7 @@
         <v>45972.66209490741</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35242,7 +35242,7 @@
         <v>45975.4581712963</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>45887.58370370371</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35361,7 +35361,7 @@
         <v>45975</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35418,7 +35418,7 @@
         <v>45358</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35480,7 +35480,7 @@
         <v>45520</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35542,7 +35542,7 @@
         <v>44631.92662037037</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>45975.54730324074</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>45975.64628472222</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>45692</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>45160</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>45138</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45975.65431712963</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>45691</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44943</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>45978.37162037037</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>45978.62611111111</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>45712.59412037037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36236,7 +36236,7 @@
         <v>44796.66613425926</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36298,7 +36298,7 @@
         <v>44586</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36355,7 +36355,7 @@
         <v>45384.65465277778</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36412,7 +36412,7 @@
         <v>45978.36412037037</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>45978.36157407407</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>45979.65149305556</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>45979.635625</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>45978.36700231482</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>45978.36677083333</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36769,7 +36769,7 @@
         <v>45093</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36826,7 +36826,7 @@
         <v>44973.57263888889</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         <v>45978.46484953703</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36940,7 +36940,7 @@
         <v>45979.51086805556</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36997,7 +36997,7 @@
         <v>45394.46115740741</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37054,7 +37054,7 @@
         <v>45981.78840277778</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37116,7 +37116,7 @@
         <v>46027.49130787037</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37178,7 +37178,7 @@
         <v>45981.78886574074</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37240,7 +37240,7 @@
         <v>45054.65834490741</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37297,7 +37297,7 @@
         <v>45743.67333333333</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37354,7 +37354,7 @@
         <v>46026.84339120371</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37411,7 +37411,7 @@
         <v>45007.37081018519</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37468,7 +37468,7 @@
         <v>45568</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37525,7 +37525,7 @@
         <v>45985.56244212963</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37582,7 +37582,7 @@
         <v>46027.6659375</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37644,7 +37644,7 @@
         <v>46027.66442129629</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37706,7 +37706,7 @@
         <v>46029.57829861111</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37768,7 +37768,7 @@
         <v>46029.56026620371</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37830,7 +37830,7 @@
         <v>45720.41847222222</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37887,7 +37887,7 @@
         <v>44295.65875</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37949,7 +37949,7 @@
         <v>44993.60099537037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38011,7 +38011,7 @@
         <v>44732.464375</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38068,7 +38068,7 @@
         <v>46031.46616898148</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38130,7 +38130,7 @@
         <v>46031.63748842593</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38192,7 +38192,7 @@
         <v>45743.42427083333</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38249,7 +38249,7 @@
         <v>44655.80475694445</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         <v>45197.49262731482</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38363,7 +38363,7 @@
         <v>45992.57708333333</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38425,7 +38425,7 @@
         <v>45992.50333333333</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38487,7 +38487,7 @@
         <v>45194.57125</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38549,7 +38549,7 @@
         <v>44660.4987962963</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         <v>45992.50802083333</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38673,7 +38673,7 @@
         <v>45992.57668981481</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38735,7 +38735,7 @@
         <v>46035.55158564815</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38797,7 +38797,7 @@
         <v>45436</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38854,7 +38854,7 @@
         <v>45761.53104166667</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38916,7 +38916,7 @@
         <v>45761.54925925926</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38978,7 +38978,7 @@
         <v>44915.59418981482</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39035,7 +39035,7 @@
         <v>46037.58893518519</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39092,7 +39092,7 @@
         <v>46037.59137731481</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39149,7 +39149,7 @@
         <v>46034</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39206,7 +39206,7 @@
         <v>46034</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39263,7 +39263,7 @@
         <v>45979.51591435185</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39320,7 +39320,7 @@
         <v>45123.88789351852</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39382,7 +39382,7 @@
         <v>45996.83506944445</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39439,7 +39439,7 @@
         <v>45996.3543287037</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39496,7 +39496,7 @@
         <v>46040.90493055555</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39553,7 +39553,7 @@
         <v>45999.59837962963</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39610,7 +39610,7 @@
         <v>45669.67625</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39667,7 +39667,7 @@
         <v>45670.47300925926</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>46039.39636574074</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>44726.42716435185</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39848,7 +39848,7 @@
         <v>44598.82957175926</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39910,7 +39910,7 @@
         <v>46043.781875</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39967,7 +39967,7 @@
         <v>46000.66645833333</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40029,7 +40029,7 @@
         <v>46000.6669675926</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40091,7 +40091,7 @@
         <v>45282</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40153,7 +40153,7 @@
         <v>46043.35760416667</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40210,7 +40210,7 @@
         <v>46043.41212962963</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         <v>46000.53084490741</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40329,7 +40329,7 @@
         <v>45096.65381944444</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40391,7 +40391,7 @@
         <v>46000.53493055556</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40453,7 +40453,7 @@
         <v>45692</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40510,7 +40510,7 @@
         <v>45107</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40572,7 +40572,7 @@
         <v>45259</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40629,7 +40629,7 @@
         <v>45621.4405787037</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40691,7 +40691,7 @@
         <v>46003.35675925926</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40748,7 +40748,7 @@
         <v>46044.33802083333</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40810,7 +40810,7 @@
         <v>44775</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40867,7 +40867,7 @@
         <v>45761.54710648148</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44523</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>44981</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41048,7 +41048,7 @@
         <v>44803.78524305556</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44676</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>45589.58766203704</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>45740.64078703704</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>44596.63290509259</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>46048.00856481482</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41400,7 +41400,7 @@
         <v>45736</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>46030.58104166666</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41514,7 +41514,7 @@
         <v>45628.39877314815</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41571,7 +41571,7 @@
         <v>45720.39715277778</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41628,7 +41628,7 @@
         <v>46050.59346064815</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>45082.62603009259</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>46008.57596064815</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41804,7 +41804,7 @@
         <v>44972.34811342593</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41866,7 +41866,7 @@
         <v>45047</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41928,7 +41928,7 @@
         <v>44952</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41985,7 +41985,7 @@
         <v>44775.400625</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42042,7 +42042,7 @@
         <v>46055.45547453704</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42104,7 +42104,7 @@
         <v>45154.55175925926</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>44938</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45712.47983796296</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42275,7 +42275,7 @@
         <v>45712</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42332,7 +42332,7 @@
         <v>45114</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42394,7 +42394,7 @@
         <v>45090.63300925926</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42456,7 +42456,7 @@
         <v>46056.65564814815</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42518,7 +42518,7 @@
         <v>46056.85776620371</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42575,7 +42575,7 @@
         <v>46057.46614583334</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42632,7 +42632,7 @@
         <v>46056.38925925926</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42694,7 +42694,7 @@
         <v>46056.4025</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42756,7 +42756,7 @@
         <v>44588</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         <v>46056.39921296296</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42875,7 +42875,7 @@
         <v>46056.52885416667</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42937,7 +42937,7 @@
         <v>45677</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42999,7 +42999,7 @@
         <v>44525</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43056,7 +43056,7 @@
         <v>45162</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43118,7 +43118,7 @@
         <v>44512</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43175,7 +43175,7 @@
         <v>44890.75795138889</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43237,7 +43237,7 @@
         <v>44895.36748842592</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43299,7 +43299,7 @@
         <v>44908.69575231482</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43356,7 +43356,7 @@
         <v>46058.58392361111</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43418,7 +43418,7 @@
         <v>46058.6049537037</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43480,7 +43480,7 @@
         <v>44973.66458333333</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43537,7 +43537,7 @@
         <v>44466</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43594,7 +43594,7 @@
         <v>45702.47630787037</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43656,7 +43656,7 @@
         <v>44553.80824074074</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43718,7 +43718,7 @@
         <v>45680</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43780,7 +43780,7 @@
         <v>45680</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43842,7 +43842,7 @@
         <v>45692</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43899,7 +43899,7 @@
         <v>44874</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43961,7 +43961,7 @@
         <v>44515</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44023,7 +44023,7 @@
         <v>45170.45050925926</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44080,7 +44080,7 @@
         <v>45713</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44137,7 +44137,7 @@
         <v>45012.7975</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44199,7 +44199,7 @@
         <v>45202.55721064815</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44256,7 +44256,7 @@
         <v>44586.64851851852</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44318,7 +44318,7 @@
         <v>44376.52438657408</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44375,7 +44375,7 @@
         <v>45462</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44437,7 +44437,7 @@
         <v>45005</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44494,7 +44494,7 @@
         <v>44715</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44551,7 +44551,7 @@
         <v>45195</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44608,7 +44608,7 @@
         <v>44609</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44665,7 +44665,7 @@
         <v>44523.46197916667</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44722,7 +44722,7 @@
         <v>44660.91659722223</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44784,7 +44784,7 @@
         <v>44684</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44841,7 +44841,7 @@
         <v>44602</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44903,7 +44903,7 @@
         <v>44916</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44960,7 +44960,7 @@
         <v>44978</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>45040</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>45203</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45141,7 +45141,7 @@
         <v>45387.3503125</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45198,7 +45198,7 @@
         <v>44361</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45255,7 +45255,7 @@
         <v>45233</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45317,7 +45317,7 @@
         <v>45225.76836805556</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45374,7 +45374,7 @@
         <v>44330</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45431,7 +45431,7 @@
         <v>44805.63708333333</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45488,7 +45488,7 @@
         <v>44883</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45545,7 +45545,7 @@
         <v>44501.76855324074</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45607,7 +45607,7 @@
         <v>45617</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45664,7 +45664,7 @@
         <v>44979</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45726,7 +45726,7 @@
         <v>45476.77056712963</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>44308</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>45758.32454861111</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45907,7 +45907,7 @@
         <v>44998.66662037037</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45964,7 +45964,7 @@
         <v>45560.44158564815</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46021,7 +46021,7 @@
         <v>44665</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46083,7 +46083,7 @@
         <v>45142.48359953704</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46145,7 +46145,7 @@
         <v>45076.71652777777</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46207,7 +46207,7 @@
         <v>45545</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46264,7 +46264,7 @@
         <v>44683</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46321,7 +46321,7 @@
         <v>45072</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46378,7 +46378,7 @@
         <v>44631.43116898148</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46435,7 +46435,7 @@
         <v>44591.59170138889</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46497,7 +46497,7 @@
         <v>45455</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46559,7 +46559,7 @@
         <v>45089</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46616,7 +46616,7 @@
         <v>44371.45335648148</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46678,7 +46678,7 @@
         <v>44909</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46735,7 +46735,7 @@
         <v>44824</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46797,7 +46797,7 @@
         <v>44890</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46859,7 +46859,7 @@
         <v>44923.82017361111</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46921,7 +46921,7 @@
         <v>44327.61518518518</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46983,7 +46983,7 @@
         <v>44977</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47045,7 +47045,7 @@
         <v>44425.35016203704</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47107,7 +47107,7 @@
         <v>44795.61990740741</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47169,7 +47169,7 @@
         <v>45684</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47226,7 +47226,7 @@
         <v>45621.4350462963</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47288,7 +47288,7 @@
         <v>45621.43712962963</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47350,7 +47350,7 @@
         <v>45621.43855324074</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47412,7 +47412,7 @@
         <v>44949.4377662037</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47469,7 +47469,7 @@
         <v>45176</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47526,7 +47526,7 @@
         <v>45146</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47583,7 +47583,7 @@
         <v>45740.64327546296</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47640,7 +47640,7 @@
         <v>45760.55842592593</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47702,7 +47702,7 @@
         <v>44998</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47759,7 +47759,7 @@
         <v>44522.31700231481</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47816,7 +47816,7 @@
         <v>44376</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47873,7 +47873,7 @@
         <v>45078</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47935,7 +47935,7 @@
         <v>45760.55671296296</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47997,7 +47997,7 @@
         <v>44578</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48054,7 +48054,7 @@
         <v>45213.84846064815</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48111,7 +48111,7 @@
         <v>44810</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48168,7 +48168,7 @@
         <v>45259</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48225,7 +48225,7 @@
         <v>44841.40452546296</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48282,7 +48282,7 @@
         <v>44550</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48339,7 +48339,7 @@
         <v>45337.4219212963</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48396,7 +48396,7 @@
         <v>44923.7849537037</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48458,7 +48458,7 @@
         <v>45225</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48515,7 +48515,7 @@
         <v>45076</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48572,7 +48572,7 @@
         <v>44953.48619212963</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48629,7 +48629,7 @@
         <v>45250.49961805555</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48686,7 +48686,7 @@
         <v>44552.36974537037</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48743,7 +48743,7 @@
         <v>45467.63127314814</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48805,7 +48805,7 @@
         <v>45147.37006944444</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48862,7 +48862,7 @@
         <v>44783.70378472222</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48924,7 +48924,7 @@
         <v>45761.87114583333</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48986,7 +48986,7 @@
         <v>44973</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49048,7 +49048,7 @@
         <v>45007</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49105,7 +49105,7 @@
         <v>45007</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49162,7 +49162,7 @@
         <v>44972</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49224,7 +49224,7 @@
         <v>45213</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49281,7 +49281,7 @@
         <v>45687.8313425926</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49338,7 +49338,7 @@
         <v>44295.63969907408</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49400,7 +49400,7 @@
         <v>45520.56896990741</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49457,7 +49457,7 @@
         <v>44725</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49514,7 +49514,7 @@
         <v>45040</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49571,7 +49571,7 @@
         <v>44915.55423611111</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49628,7 +49628,7 @@
         <v>45097</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49685,7 +49685,7 @@
         <v>44531.61038194445</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49747,7 +49747,7 @@
         <v>45468</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49804,7 +49804,7 @@
         <v>45701.83930555556</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49861,7 +49861,7 @@
         <v>44496.57019675926</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49918,7 +49918,7 @@
         <v>45721</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49980,7 +49980,7 @@
         <v>44938</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50037,7 +50037,7 @@
         <v>45597</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50094,7 +50094,7 @@
         <v>45778.415625</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50151,7 +50151,7 @@
         <v>45778.4108912037</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50208,7 +50208,7 @@
         <v>45562</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50270,7 +50270,7 @@
         <v>45538.71109953704</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50332,7 +50332,7 @@
         <v>45520.51063657407</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50394,7 +50394,7 @@
         <v>45569</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50451,7 +50451,7 @@
         <v>45786.64865740741</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50513,7 +50513,7 @@
         <v>45013.57858796296</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50570,7 +50570,7 @@
         <v>45513.36644675926</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50632,7 +50632,7 @@
         <v>45546.64221064815</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50694,7 +50694,7 @@
         <v>45569</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50751,7 +50751,7 @@
         <v>45574</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50808,7 +50808,7 @@
         <v>45572</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50865,7 +50865,7 @@
         <v>44598.82700231481</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50927,7 +50927,7 @@
         <v>45569.57518518518</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50984,7 +50984,7 @@
         <v>45572.52690972222</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51041,7 +51041,7 @@
         <v>45786.65072916666</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51103,7 +51103,7 @@
         <v>45786.64141203704</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51165,7 +51165,7 @@
         <v>45253.57559027777</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51222,7 +51222,7 @@
         <v>45791.60127314815</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51279,7 +51279,7 @@
         <v>45670</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51336,7 +51336,7 @@
         <v>45499.47106481482</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51398,7 +51398,7 @@
         <v>45456</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51460,7 +51460,7 @@
         <v>45797.67381944445</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51517,7 +51517,7 @@
         <v>45796</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51579,7 +51579,7 @@
         <v>45796.69207175926</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51636,7 +51636,7 @@
         <v>45460</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>

--- a/Översikt ÖSTHAMMAR.xlsx
+++ b/Översikt ÖSTHAMMAR.xlsx
@@ -575,7 +575,7 @@
         <v>45106</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         <v>45590</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>45660</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>45439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45575</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>45681</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>46048.35861111111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45996.83012731482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45106</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>45572</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44482</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>44938</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>45895.57082175926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>45895.55805555556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>44771</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>45226</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45622</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>45660</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>45746</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>46009</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45746</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44387</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>44779</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>45891.56333333333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>45205</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>45076</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>45198</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>44819.44055555556</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44511</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44614</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>45238</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44662</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>45804.79280092593</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>45947.57583333334</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44727</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44837</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>46030.66722222222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>45076</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44875</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>44684</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>44376</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>45999.56931712963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>44559</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>45468</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44858</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>45617</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44474</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>45799.66607638889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>45412</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>44984.43856481482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44376</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>45362.53928240741</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>45190</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>46056.44011574074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44739</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44515.45704861111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>44778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>45425.63697916667</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>45677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>45898.69215277778</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45775.63983796296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>45840.68208333333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>45880</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>44644</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>45975.69306712963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>45499</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>45362.37055555556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>45999.58256944444</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>46001.47858796296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>45468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>44525</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>45063</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>44555</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>45063</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44729.44149305556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44235</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>44813</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44501</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>44455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>44874</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>44455</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44606</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>45070</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>45898.58630787037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>45831.45510416666</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45583.33221064815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44985</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>45957.544375</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44607</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>44712</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45384</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44728</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>45078</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>46001.51974537037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>45520</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>46048.46175925926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>45013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44572.57641203704</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>45135</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>46002</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>44991</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10317,7 +10317,7 @@
         <v>46056.38474537037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44875</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>45156</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44517</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>45446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>44536</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45107</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44509</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>45393</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11101,7 +11101,7 @@
         <v>44555.80506944445</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11158,7 +11158,7 @@
         <v>44536</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11215,7 +11215,7 @@
         <v>44732.48165509259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>44729</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11334,7 +11334,7 @@
         <v>44614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11391,7 +11391,7 @@
         <v>44622</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44501.4250462963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11515,7 +11515,7 @@
         <v>44687.68890046296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11572,7 +11572,7 @@
         <v>44687</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11629,7 +11629,7 @@
         <v>44622</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>44664</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>44651.88756944444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>44644</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44868</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44491.53787037037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44498</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44838.82126157408</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>44336</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>44577.83829861111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44461</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>44691</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>44368</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44525.48695601852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>44661.73925925926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>44347</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>44649.90252314815</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>44622</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>44342.59954861111</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44342.62907407407</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44622</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44613.51798611111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44243</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44376.32519675926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44278</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44588</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44725.45895833334</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>44852.59962962963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>44519.3990162037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>44598.8281712963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44450</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44462</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44694</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>44659</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>44512.6108912037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44692.49559027778</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44432</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44865</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>44715.91158564815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44664</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44757.75236111111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44589.66446759259</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44873.67842592593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44425.37835648148</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44661.74027777778</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>44734.49601851852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>44501.42905092592</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>44809</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>44809.63373842592</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44813</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>44810</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>44635.68695601852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44712.51509259259</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44669.36354166667</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44687.87017361111</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>44728</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44608</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44872.62109953703</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>44235</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>44770</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>44739</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44467</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>44620.35590277778</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>44635.39946759259</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>44578</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>44687.86751157408</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>44309.28576388889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>44676</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>44643.4372337963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>44669</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44337</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>44715</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>44466</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44792</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44482.47577546296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44809</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>45758.33304398148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>45208.70452546296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44775</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>45068</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>45621.43098379629</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>45271</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44591.51854166666</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>44576.78626157407</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>45114.79793981482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44560.4502199074</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>45448</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>45775.44483796296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44739</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>45107</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44991.62203703704</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>44755</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>45110.43907407407</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>45054</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44783.69886574074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44915.59645833333</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>45212.71481481481</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45711.52333333333</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>45191</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44651.5625</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44599.72306712963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45045</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>44643.93269675926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>44599</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44651.40924768519</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>45250.58635416667</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>45684</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44768.88685185185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>45146.68921296296</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44706</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>45670</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44860</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>45670</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>45665.58465277778</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>45685.68193287037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>45154</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>45735</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>45230.77258101852</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>44814.5991087963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>45669.69075231482</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>45670</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>45799.66876157407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>45162.6177662037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>45733.41601851852</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>44874</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>45799.56347222222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>45734.38159722222</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>45524</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>45574.65427083334</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>45749.84232638889</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>45257</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         <v>45740.51895833333</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>44746.65873842593</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
         <v>45632.59780092593</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>45212.71241898148</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>45530.68873842592</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>45772</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45805.68263888889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>45194.59335648148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>45805.65960648148</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>44287</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>45804.77559027778</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45807.56275462963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>45807.56612268519</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20452,7 +20452,7 @@
         <v>44991.9321412037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>45811</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>45516.72097222223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44511</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20685,7 +20685,7 @@
         <v>44600.35755787037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>45811</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>45811.63436342592</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45812.62390046296</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45812.68268518519</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44533.44887731481</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>44555.80339120371</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45812.62694444445</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45812.62571759259</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45329</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45812.66628472223</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45812.66829861111</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45812.6850462963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>45813.48471064815</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>45063.65543981481</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>45561</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44308</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>45895.54085648148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>45455</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>45895.53020833333</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>45895.53689814815</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>45895.65013888889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>45895.65179398148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>45817.48384259259</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>45894.34747685185</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>45337.36831018519</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>45894.40133101852</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22279,7 +22279,7 @@
         <v>45817.40178240741</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>45817.32150462963</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22403,7 +22403,7 @@
         <v>45895.57736111111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22460,7 +22460,7 @@
         <v>45817.48454861111</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44515</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>45708</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45813.4278125</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>45896.47878472223</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>45819</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>44572.5827662037</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>45544</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>45901.54751157408</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>45462</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>45751</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>45793.41719907407</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>45713.4196875</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>45820.39076388889</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>45820.39540509259</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>45821.43233796296</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>45821.44159722222</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>45820</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45821.4384375</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>45797.64908564815</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23655,7 +23655,7 @@
         <v>45797.65774305556</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23712,7 +23712,7 @@
         <v>45821.43973379629</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44770.42166666667</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
         <v>44560.43136574074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44365</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>45797.63553240741</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>45812.6672337963</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>45419.44106481481</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>44953.48179398148</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>45817.82967592592</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>45813.39756944445</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>45909.48989583334</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>45824</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>45691</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
         <v>45909.33440972222</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24545,7 +24545,7 @@
         <v>45813.39273148148</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>45825.63803240741</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>45152.37296296296</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>45842.62363425926</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>45911.66671296296</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>45813.38521990741</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>45911.68295138889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24954,7 +24954,7 @@
         <v>44970</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>45827.40902777778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>45093.47947916666</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>45758.32645833334</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44308</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>45063.47773148148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>45758.33583333333</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>45337.41784722222</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>45379.61878472222</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25487,7 +25487,7 @@
         <v>45831.45965277778</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25544,7 +25544,7 @@
         <v>45916.66152777777</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         <v>45659</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25663,7 +25663,7 @@
         <v>45830.8558912037</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25720,7 +25720,7 @@
         <v>45919.39731481481</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25777,7 +25777,7 @@
         <v>45830.8500462963</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>45358</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>45520</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>45918.54903935185</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>45919.40252314815</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>45923.44583333333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26139,7 +26139,7 @@
         <v>45923.44844907407</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>45075</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>45609.55065972222</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44643</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>45678</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>45832.89476851852</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>45923.44094907407</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>45757.40733796296</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26610,7 +26610,7 @@
         <v>45384</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26667,7 +26667,7 @@
         <v>45833.68211805556</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>45833.43527777777</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26781,7 +26781,7 @@
         <v>44664</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44613.77238425926</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>45666</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>45924.39706018518</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45520</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44613</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>45225</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27185,7 +27185,7 @@
         <v>45924.52100694444</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>45148.64976851852</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27309,7 +27309,7 @@
         <v>45924.52010416667</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>45927.00606481481</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>45685.66459490741</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27485,7 +27485,7 @@
         <v>45686</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45341.70582175926</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45834.67556712963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>45758.32872685185</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>45758.33064814815</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>45244.56943287037</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27842,7 +27842,7 @@
         <v>45102.33054398148</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27904,7 +27904,7 @@
         <v>45102.59896990741</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>44894.68043981482</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>45930.56626157407</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>45835.34184027778</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>45835.3554050926</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45930.56592592593</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>45930.56607638889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>45813.37517361111</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>44496</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45572</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45931.47211805556</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45931.47542824074</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45593</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>45202</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>45839.37740740741</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>44963.62001157407</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>44874.38325231482</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>44341.590625</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>45936.55887731481</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45936</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>44896.56266203704</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>44896.57527777777</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45695</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>45841.55199074074</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45840.41451388889</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45840.68381944444</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45937.43621527778</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>44461</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>45937.43274305556</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29602,7 +29602,7 @@
         <v>45939.58928240741</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29659,7 +29659,7 @@
         <v>45187.71274305556</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29721,7 +29721,7 @@
         <v>45770.4015625</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29783,7 +29783,7 @@
         <v>45929.5775</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29840,7 +29840,7 @@
         <v>45678</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29897,7 +29897,7 @@
         <v>45807</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29954,7 +29954,7 @@
         <v>45940.37303240741</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30011,7 +30011,7 @@
         <v>45842.97236111111</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30068,7 +30068,7 @@
         <v>45102</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30130,7 +30130,7 @@
         <v>45805.67305555556</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         <v>45759.56894675926</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30244,7 +30244,7 @@
         <v>45760.55626157407</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         <v>45842.98429398148</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30363,7 +30363,7 @@
         <v>45712.57872685185</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30420,7 +30420,7 @@
         <v>45233.33221064815</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         <v>45516.57682870371</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>45947.57833333333</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44959.83037037037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30668,7 +30668,7 @@
         <v>44991</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30730,7 +30730,7 @@
         <v>45467</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30787,7 +30787,7 @@
         <v>45719.59866898148</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30844,7 +30844,7 @@
         <v>44495</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30906,7 +30906,7 @@
         <v>45711.51902777778</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30968,7 +30968,7 @@
         <v>45711.53565972222</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31030,7 +31030,7 @@
         <v>45770.65739583333</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31092,7 +31092,7 @@
         <v>45950.45677083333</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31149,7 +31149,7 @@
         <v>45949.00917824074</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31206,7 +31206,7 @@
         <v>44950</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31268,7 +31268,7 @@
         <v>45951.56679398148</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31330,7 +31330,7 @@
         <v>45949.71568287037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>45948.99313657408</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>45079.50289351852</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>45519</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31568,7 +31568,7 @@
         <v>45519</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>45949.70971064815</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31692,7 +31692,7 @@
         <v>45953.67853009259</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31754,7 +31754,7 @@
         <v>44725</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31811,7 +31811,7 @@
         <v>45904.50652777778</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31868,7 +31868,7 @@
         <v>45433</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31925,7 +31925,7 @@
         <v>45746</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31982,7 +31982,7 @@
         <v>45866.48244212963</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32039,7 +32039,7 @@
         <v>45759.56462962963</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32096,7 +32096,7 @@
         <v>44928.40917824074</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32153,7 +32153,7 @@
         <v>44928.41822916667</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32210,7 +32210,7 @@
         <v>45869.4290625</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32267,7 +32267,7 @@
         <v>45621.42747685185</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32329,7 +32329,7 @@
         <v>45520.50712962963</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32391,7 +32391,7 @@
         <v>45872.47782407407</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32453,7 +32453,7 @@
         <v>45519.81043981481</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32515,7 +32515,7 @@
         <v>45112.86422453704</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32577,7 +32577,7 @@
         <v>45872</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32639,7 +32639,7 @@
         <v>45872.48738425926</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32701,7 +32701,7 @@
         <v>44476.3632175926</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32763,7 +32763,7 @@
         <v>45646.47936342593</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>45872</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32882,7 +32882,7 @@
         <v>44644</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32939,7 +32939,7 @@
         <v>45695</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33016,7 +33016,7 @@
         <v>45575.58836805556</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44687.78673611111</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33130,7 +33130,7 @@
         <v>45372</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33187,7 +33187,7 @@
         <v>45362.36296296296</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33244,7 +33244,7 @@
         <v>45762.5966087963</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33301,7 +33301,7 @@
         <v>45960</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33358,7 +33358,7 @@
         <v>45102.58728009259</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>45960</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>45960</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33534,7 +33534,7 @@
         <v>45961</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33591,7 +33591,7 @@
         <v>45880</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33648,7 +33648,7 @@
         <v>44903</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33705,7 +33705,7 @@
         <v>45496</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33767,7 +33767,7 @@
         <v>45960.64431712963</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>45960.64520833334</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33891,7 +33891,7 @@
         <v>44591</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33948,7 +33948,7 @@
         <v>45964.63251157408</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>45880.70917824074</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>45965.74545138889</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34124,7 +34124,7 @@
         <v>45230.76862268519</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>45174.62788194444</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>45880.7505787037</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>45040.47081018519</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>45090</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>45218.5586574074</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
         <v>45239</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45044</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34590,7 +34590,7 @@
         <v>45691</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>44905.50363425926</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>45966.37258101852</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45966.37548611111</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45755.64612268518</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34885,7 +34885,7 @@
         <v>45969.76908564815</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34947,7 +34947,7 @@
         <v>45482</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35009,7 +35009,7 @@
         <v>44970.39591435185</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35066,7 +35066,7 @@
         <v>45968.48032407407</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35123,7 +35123,7 @@
         <v>45572</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35180,7 +35180,7 @@
         <v>45972.66209490741</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35242,7 +35242,7 @@
         <v>45975.4581712963</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>45887.58370370371</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35361,7 +35361,7 @@
         <v>45975</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35418,7 +35418,7 @@
         <v>45358</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35480,7 +35480,7 @@
         <v>45520</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35542,7 +35542,7 @@
         <v>44631.92662037037</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>45975.54730324074</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>45975.64628472222</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>45692</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>45160</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>45138</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45975.65431712963</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>45691</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44943</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>45978.37162037037</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>45978.62611111111</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>45712.59412037037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36236,7 +36236,7 @@
         <v>44796.66613425926</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36298,7 +36298,7 @@
         <v>44586</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36355,7 +36355,7 @@
         <v>45384.65465277778</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36412,7 +36412,7 @@
         <v>45978.36412037037</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>45978.36157407407</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>45979.65149305556</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>45979.635625</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>45978.36700231482</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>45978.36677083333</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36769,7 +36769,7 @@
         <v>45093</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36826,7 +36826,7 @@
         <v>44973.57263888889</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         <v>45978.46484953703</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36940,7 +36940,7 @@
         <v>45979.51086805556</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36997,7 +36997,7 @@
         <v>45394.46115740741</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37054,7 +37054,7 @@
         <v>45981.78840277778</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37116,7 +37116,7 @@
         <v>46027.49130787037</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37178,7 +37178,7 @@
         <v>45981.78886574074</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37240,7 +37240,7 @@
         <v>45054.65834490741</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37297,7 +37297,7 @@
         <v>45743.67333333333</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37354,7 +37354,7 @@
         <v>46026.84339120371</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37411,7 +37411,7 @@
         <v>45007.37081018519</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37468,7 +37468,7 @@
         <v>45568</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37525,7 +37525,7 @@
         <v>45985.56244212963</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37582,7 +37582,7 @@
         <v>46027.6659375</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37644,7 +37644,7 @@
         <v>46027.66442129629</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37706,7 +37706,7 @@
         <v>46029.57829861111</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37768,7 +37768,7 @@
         <v>46029.56026620371</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37830,7 +37830,7 @@
         <v>45720.41847222222</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37887,7 +37887,7 @@
         <v>44295.65875</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37949,7 +37949,7 @@
         <v>44993.60099537037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38011,7 +38011,7 @@
         <v>44732.464375</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38068,7 +38068,7 @@
         <v>46031.46616898148</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38130,7 +38130,7 @@
         <v>46031.63748842593</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38192,7 +38192,7 @@
         <v>45743.42427083333</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38249,7 +38249,7 @@
         <v>44655.80475694445</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         <v>45197.49262731482</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38363,7 +38363,7 @@
         <v>45992.57708333333</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38425,7 +38425,7 @@
         <v>45992.50333333333</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38487,7 +38487,7 @@
         <v>45194.57125</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38549,7 +38549,7 @@
         <v>44660.4987962963</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         <v>45992.50802083333</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38673,7 +38673,7 @@
         <v>45992.57668981481</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38735,7 +38735,7 @@
         <v>46035.55158564815</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38797,7 +38797,7 @@
         <v>45436</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38854,7 +38854,7 @@
         <v>45761.53104166667</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38916,7 +38916,7 @@
         <v>45761.54925925926</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38978,7 +38978,7 @@
         <v>44915.59418981482</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39035,7 +39035,7 @@
         <v>46037.58893518519</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39092,7 +39092,7 @@
         <v>46037.59137731481</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39149,7 +39149,7 @@
         <v>46034</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39206,7 +39206,7 @@
         <v>46034</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39263,7 +39263,7 @@
         <v>45979.51591435185</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39320,7 +39320,7 @@
         <v>45123.88789351852</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39382,7 +39382,7 @@
         <v>45996.83506944445</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39439,7 +39439,7 @@
         <v>45996.3543287037</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39496,7 +39496,7 @@
         <v>46040.90493055555</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39553,7 +39553,7 @@
         <v>45999.59837962963</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39610,7 +39610,7 @@
         <v>45669.67625</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39667,7 +39667,7 @@
         <v>45670.47300925926</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>46039.39636574074</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>44726.42716435185</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39848,7 +39848,7 @@
         <v>44598.82957175926</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39910,7 +39910,7 @@
         <v>46043.781875</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39967,7 +39967,7 @@
         <v>46000.66645833333</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40029,7 +40029,7 @@
         <v>46000.6669675926</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40091,7 +40091,7 @@
         <v>45282</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40153,7 +40153,7 @@
         <v>46043.35760416667</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40210,7 +40210,7 @@
         <v>46043.41212962963</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         <v>46000.53084490741</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40329,7 +40329,7 @@
         <v>45096.65381944444</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40391,7 +40391,7 @@
         <v>46000.53493055556</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40453,7 +40453,7 @@
         <v>45692</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40510,7 +40510,7 @@
         <v>45107</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40572,7 +40572,7 @@
         <v>45259</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40629,7 +40629,7 @@
         <v>45621.4405787037</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40691,7 +40691,7 @@
         <v>46003.35675925926</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40748,7 +40748,7 @@
         <v>46044.33802083333</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40810,7 +40810,7 @@
         <v>44775</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40867,7 +40867,7 @@
         <v>45761.54710648148</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44523</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>44981</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41048,7 +41048,7 @@
         <v>44803.78524305556</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44676</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>45589.58766203704</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>45740.64078703704</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>44596.63290509259</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>46048.00856481482</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41400,7 +41400,7 @@
         <v>45736</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>46030.58104166666</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41514,7 +41514,7 @@
         <v>45628.39877314815</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41571,7 +41571,7 @@
         <v>45720.39715277778</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41628,7 +41628,7 @@
         <v>46050.59346064815</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>45082.62603009259</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>46008.57596064815</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41804,7 +41804,7 @@
         <v>44972.34811342593</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41866,7 +41866,7 @@
         <v>45047</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41928,7 +41928,7 @@
         <v>44952</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41985,7 +41985,7 @@
         <v>44775.400625</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42042,7 +42042,7 @@
         <v>46055.45547453704</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42104,7 +42104,7 @@
         <v>45154.55175925926</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>44938</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45712.47983796296</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42275,7 +42275,7 @@
         <v>45712</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42332,7 +42332,7 @@
         <v>45114</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42394,7 +42394,7 @@
         <v>45090.63300925926</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42456,7 +42456,7 @@
         <v>46056.65564814815</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42518,7 +42518,7 @@
         <v>46056.85776620371</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42575,7 +42575,7 @@
         <v>46057.46614583334</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42632,7 +42632,7 @@
         <v>46056.38925925926</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42694,7 +42694,7 @@
         <v>46056.4025</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42756,7 +42756,7 @@
         <v>44588</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         <v>46056.39921296296</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42875,7 +42875,7 @@
         <v>46056.52885416667</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42937,7 +42937,7 @@
         <v>45677</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42999,7 +42999,7 @@
         <v>44525</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43056,7 +43056,7 @@
         <v>45162</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43118,7 +43118,7 @@
         <v>44512</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43175,7 +43175,7 @@
         <v>44890.75795138889</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43237,7 +43237,7 @@
         <v>44895.36748842592</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43299,7 +43299,7 @@
         <v>44908.69575231482</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43356,7 +43356,7 @@
         <v>46058.58392361111</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43418,7 +43418,7 @@
         <v>46058.6049537037</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43480,7 +43480,7 @@
         <v>44973.66458333333</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43537,7 +43537,7 @@
         <v>44466</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43594,7 +43594,7 @@
         <v>45702.47630787037</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43656,7 +43656,7 @@
         <v>44553.80824074074</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43718,7 +43718,7 @@
         <v>45680</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43780,7 +43780,7 @@
         <v>45680</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43842,7 +43842,7 @@
         <v>45692</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43899,7 +43899,7 @@
         <v>44874</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43961,7 +43961,7 @@
         <v>44515</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44023,7 +44023,7 @@
         <v>45170.45050925926</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44080,7 +44080,7 @@
         <v>45713</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44137,7 +44137,7 @@
         <v>45012.7975</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44199,7 +44199,7 @@
         <v>45202.55721064815</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44256,7 +44256,7 @@
         <v>44586.64851851852</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44318,7 +44318,7 @@
         <v>44376.52438657408</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44375,7 +44375,7 @@
         <v>45462</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44437,7 +44437,7 @@
         <v>45005</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44494,7 +44494,7 @@
         <v>44715</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44551,7 +44551,7 @@
         <v>45195</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44608,7 +44608,7 @@
         <v>44609</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44665,7 +44665,7 @@
         <v>44523.46197916667</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44722,7 +44722,7 @@
         <v>44660.91659722223</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44784,7 +44784,7 @@
         <v>44684</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44841,7 +44841,7 @@
         <v>44602</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44903,7 +44903,7 @@
         <v>44916</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44960,7 +44960,7 @@
         <v>44978</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         <v>45040</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>45203</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45141,7 +45141,7 @@
         <v>45387.3503125</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45198,7 +45198,7 @@
         <v>44361</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45255,7 +45255,7 @@
         <v>45233</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45317,7 +45317,7 @@
         <v>45225.76836805556</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45374,7 +45374,7 @@
         <v>44330</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45431,7 +45431,7 @@
         <v>44805.63708333333</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45488,7 +45488,7 @@
         <v>44883</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45545,7 +45545,7 @@
         <v>44501.76855324074</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45607,7 +45607,7 @@
         <v>45617</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45664,7 +45664,7 @@
         <v>44979</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45726,7 +45726,7 @@
         <v>45476.77056712963</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>44308</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>45758.32454861111</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45907,7 +45907,7 @@
         <v>44998.66662037037</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45964,7 +45964,7 @@
         <v>45560.44158564815</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46021,7 +46021,7 @@
         <v>44665</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46083,7 +46083,7 @@
         <v>45142.48359953704</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46145,7 +46145,7 @@
         <v>45076.71652777777</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46207,7 +46207,7 @@
         <v>45545</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46264,7 +46264,7 @@
         <v>44683</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46321,7 +46321,7 @@
         <v>45072</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46378,7 +46378,7 @@
         <v>44631.43116898148</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46435,7 +46435,7 @@
         <v>44591.59170138889</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46497,7 +46497,7 @@
         <v>45455</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46559,7 +46559,7 @@
         <v>45089</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46616,7 +46616,7 @@
         <v>44371.45335648148</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46678,7 +46678,7 @@
         <v>44909</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46735,7 +46735,7 @@
         <v>44824</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46797,7 +46797,7 @@
         <v>44890</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46859,7 +46859,7 @@
         <v>44923.82017361111</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46921,7 +46921,7 @@
         <v>44327.61518518518</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46983,7 +46983,7 @@
         <v>44977</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47045,7 +47045,7 @@
         <v>44425.35016203704</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47107,7 +47107,7 @@
         <v>44795.61990740741</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47169,7 +47169,7 @@
         <v>45684</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47226,7 +47226,7 @@
         <v>45621.4350462963</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47288,7 +47288,7 @@
         <v>45621.43712962963</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47350,7 +47350,7 @@
         <v>45621.43855324074</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47412,7 +47412,7 @@
         <v>44949.4377662037</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47469,7 +47469,7 @@
         <v>45176</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47526,7 +47526,7 @@
         <v>45146</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47583,7 +47583,7 @@
         <v>45740.64327546296</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47640,7 +47640,7 @@
         <v>45760.55842592593</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47702,7 +47702,7 @@
         <v>44998</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47759,7 +47759,7 @@
         <v>44522.31700231481</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47816,7 +47816,7 @@
         <v>44376</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47873,7 +47873,7 @@
         <v>45078</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47935,7 +47935,7 @@
         <v>45760.55671296296</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47997,7 +47997,7 @@
         <v>44578</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48054,7 +48054,7 @@
         <v>45213.84846064815</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48111,7 +48111,7 @@
         <v>44810</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48168,7 +48168,7 @@
         <v>45259</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48225,7 +48225,7 @@
         <v>44841.40452546296</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48282,7 +48282,7 @@
         <v>44550</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48339,7 +48339,7 @@
         <v>45337.4219212963</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48396,7 +48396,7 @@
         <v>44923.7849537037</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48458,7 +48458,7 @@
         <v>45225</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48515,7 +48515,7 @@
         <v>45076</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48572,7 +48572,7 @@
         <v>44953.48619212963</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48629,7 +48629,7 @@
         <v>45250.49961805555</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48686,7 +48686,7 @@
         <v>44552.36974537037</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48743,7 +48743,7 @@
         <v>45467.63127314814</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48805,7 +48805,7 @@
         <v>45147.37006944444</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48862,7 +48862,7 @@
         <v>44783.70378472222</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48924,7 +48924,7 @@
         <v>45761.87114583333</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48986,7 +48986,7 @@
         <v>44973</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49048,7 +49048,7 @@
         <v>45007</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49105,7 +49105,7 @@
         <v>45007</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49162,7 +49162,7 @@
         <v>44972</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49224,7 +49224,7 @@
         <v>45213</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49281,7 +49281,7 @@
         <v>45687.8313425926</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49338,7 +49338,7 @@
         <v>44295.63969907408</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49400,7 +49400,7 @@
         <v>45520.56896990741</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49457,7 +49457,7 @@
         <v>44725</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49514,7 +49514,7 @@
         <v>45040</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49571,7 +49571,7 @@
         <v>44915.55423611111</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49628,7 +49628,7 @@
         <v>45097</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49685,7 +49685,7 @@
         <v>44531.61038194445</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49747,7 +49747,7 @@
         <v>45468</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49804,7 +49804,7 @@
         <v>45701.83930555556</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49861,7 +49861,7 @@
         <v>44496.57019675926</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49918,7 +49918,7 @@
         <v>45721</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49980,7 +49980,7 @@
         <v>44938</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50037,7 +50037,7 @@
         <v>45597</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50094,7 +50094,7 @@
         <v>45778.415625</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50151,7 +50151,7 @@
         <v>45778.4108912037</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50208,7 +50208,7 @@
         <v>45562</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50270,7 +50270,7 @@
         <v>45538.71109953704</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50332,7 +50332,7 @@
         <v>45520.51063657407</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50394,7 +50394,7 @@
         <v>45569</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50451,7 +50451,7 @@
         <v>45786.64865740741</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50513,7 +50513,7 @@
         <v>45013.57858796296</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50570,7 +50570,7 @@
         <v>45513.36644675926</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50632,7 +50632,7 @@
         <v>45546.64221064815</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50694,7 +50694,7 @@
         <v>45569</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50751,7 +50751,7 @@
         <v>45574</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50808,7 +50808,7 @@
         <v>45572</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50865,7 +50865,7 @@
         <v>44598.82700231481</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50927,7 +50927,7 @@
         <v>45569.57518518518</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50984,7 +50984,7 @@
         <v>45572.52690972222</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51041,7 +51041,7 @@
         <v>45786.65072916666</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51103,7 +51103,7 @@
         <v>45786.64141203704</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51165,7 +51165,7 @@
         <v>45253.57559027777</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51222,7 +51222,7 @@
         <v>45791.60127314815</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51279,7 +51279,7 @@
         <v>45670</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51336,7 +51336,7 @@
         <v>45499.47106481482</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51398,7 +51398,7 @@
         <v>45456</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51460,7 +51460,7 @@
         <v>45797.67381944445</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51517,7 +51517,7 @@
         <v>45796</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51579,7 +51579,7 @@
         <v>45796.69207175926</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51636,7 +51636,7 @@
         <v>45460</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>

--- a/Översikt ÖSTHAMMAR.xlsx
+++ b/Översikt ÖSTHAMMAR.xlsx
@@ -575,7 +575,7 @@
         <v>45106</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         <v>45660</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>45590</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>45439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45575</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>45681</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>46048.35861111111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45996.83012731482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45106</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>45572</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44482</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>44938</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>45895.57082175926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>45895.55805555556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>44771</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>45226</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45622</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>45660</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>45746</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>45746</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>46009</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>46071.65847222223</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>44387</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44779</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>45891.56333333333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>45205</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>45076</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45198</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44819.44055555556</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>44511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>44614</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45238</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44662</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>45947.57583333334</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>44727</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44837</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>45076</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>46030.66722222222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45804.79280092593</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>44875</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>44684</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>44376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>45999.56931712963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44559</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>45468</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>44858</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>45617</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>44474</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>44984.43856481482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>44376</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>45362.53928240741</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>45190</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         <v>46056.44011574074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44739</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>45799.66607638889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>45412</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>44495</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>44515.45704861111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>44778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>45425.63697916667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>45898.69215277778</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45840.68208333333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>45775.63983796296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>45880</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>44644</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>45499</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>45975.69306712963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>45362.37055555556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>45999.58256944444</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>46001.47858796296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>45468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>44525</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>45063</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>44555</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>45063</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44729.44149305556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>45677</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44813</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>44501</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>44455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44874</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>44455</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>44606</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>45070</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>45831.45510416666</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>45898.58630787037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>45583.33221064815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>44985</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>44607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>45957.544375</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>44712</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>45384</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44728</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>45078</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>46001.51974537037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45520</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>45013</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>46048.46175925926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44572.57641203704</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>45135</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44991</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>46002</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44875</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>46056.38474537037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10497,7 +10497,7 @@
         <v>45156</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44517</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10667,7 +10667,7 @@
         <v>45446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>44536</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>45107</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44509</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>45393</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         <v>44555.80506944445</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11163,7 +11163,7 @@
         <v>44536</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11220,7 +11220,7 @@
         <v>44729</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44732.48165509259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44622</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11458,7 +11458,7 @@
         <v>44501.4250462963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>44687.68890046296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>44687</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>44622</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44664</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44651.88756944444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44644</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44868</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44498</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44491.53787037037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>44838.82126157408</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>44577.83829861111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>44336</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
         <v>44691</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         <v>44461</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>44368</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12400,7 +12400,7 @@
         <v>44661.73925925926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>44649.90252314815</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44525.48695601852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44347</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>44622</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44342.59954861111</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44342.62907407407</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44622</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44613.51798611111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44376.32519675926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44278</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>44588</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>44725.45895833334</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>44852.59962962963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44519.3990162037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44598.8281712963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44450</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44462</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44692.49559027778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44694</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44659</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44512.6108912037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44432</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44865</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44715.91158564815</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44664</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44757.75236111111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>44861</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44589.66446759259</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44873.67842592593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>44425.37835648148</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44661.74027777778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44734.49601851852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44501.42905092592</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44809</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44809.63373842592</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>44813</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44810</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44635.68695601852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44712.51509259259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>44669.36354166667</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>44687.87017361111</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44728</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>44608</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>44872.62109953703</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44770</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>44739</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>44467</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44578</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>44687.86751157408</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>44635.39946759259</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44676</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>44309.28576388889</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44620.35590277778</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44643.4372337963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44669</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44337</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44715</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44466</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>44792</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>44482.47577546296</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44809</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>44576.78626157407</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>45114.79793981482</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>45758.33304398148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44560.4502199074</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>45208.70452546296</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44775</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>45068</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>45621.43098379629</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>45271</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>44991.62203703704</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44591.51854166666</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>45107</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>45448</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>45775.44483796296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44739</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>45054</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>45110.43907407407</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44755</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44783.69886574074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45212.71481481481</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>45191</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44915.59645833333</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>45711.52333333333</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44651.5625</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44643.93269675926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44599.72306712963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>45045</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44599</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44651.40924768519</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>45250.58635416667</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17993,7 +17993,7 @@
         <v>44706</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45670</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18107,7 +18107,7 @@
         <v>45684</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44768.88685185185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44860</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>45665.58465277778</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44987</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>45670</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>45230.77258101852</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>45685.68193287037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>44814.5991087963</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>45154</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>45735</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>45669.69075231482</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>45670</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>45162.6177662037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18935,7 +18935,7 @@
         <v>44963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>45733.41601851852</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19049,7 +19049,7 @@
         <v>44874</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>45574.65427083334</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>45257</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44746.65873842593</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>45194.59335648148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44287</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>45212.71241898148</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>45530.68873842592</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45772</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44991.9321412037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45146.68921296296</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45516.72097222223</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
         <v>44600.35755787037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19820,7 +19820,7 @@
         <v>44511</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
         <v>44533.44887731481</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19939,7 +19939,7 @@
         <v>45063.65543981481</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>45561</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>44555.80339120371</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>44308</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45455</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
         <v>45817.48454861111</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>45708</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>45329</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>45813.4278125</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20482,7 +20482,7 @@
         <v>45337.36831018519</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         <v>45819</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44515</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
         <v>45793.41719907407</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20720,7 +20720,7 @@
         <v>45820.39076388889</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>45820.39540509259</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20834,7 +20834,7 @@
         <v>44572.5827662037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20891,7 +20891,7 @@
         <v>45821.43233796296</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20948,7 +20948,7 @@
         <v>45821.44159722222</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>45820</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         <v>45544</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45821.4384375</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>45821.43973379629</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>45462</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>45751</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>45813.39756944445</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>45824</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>45813.39273148148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>45825.63803240741</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>45813.38521990741</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44770.42166666667</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>45827.40902777778</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21786,7 +21786,7 @@
         <v>44560.43136574074</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>44365</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21910,7 +21910,7 @@
         <v>45895.54085648148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21967,7 +21967,7 @@
         <v>45895.53020833333</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22024,7 +22024,7 @@
         <v>45895.53689814815</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22081,7 +22081,7 @@
         <v>45419.44106481481</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
         <v>45895.65013888889</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         <v>44953.48179398148</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22252,7 +22252,7 @@
         <v>45895.65179398148</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22309,7 +22309,7 @@
         <v>45894.34747685185</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22371,7 +22371,7 @@
         <v>45894.40133101852</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>45831.45965277778</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>45830.8558912037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>45830.8500462963</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>45152.37296296296</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>45895.57736111111</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>44970</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>45093.47947916666</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>45832.89476851852</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>45896.47878472223</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>45833.68211805556</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>45833.43527777777</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>45758.32645833334</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44308</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>45758.33583333333</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>45901.54751157408</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>45337.41784722222</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>45379.61878472222</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>45713.4196875</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23494,7 +23494,7 @@
         <v>45659</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>45835.34184027778</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45835.3554050926</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>45797.64908564815</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>45797.65774305556</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>45358</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         <v>45520</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>45813.37517361111</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>45839.37740740741</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>45797.63553240741</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>45812.6672337963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>45075</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>45609.55065972222</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>44643</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>45678</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>45757.40733796296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>45817.82967592592</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>45384</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>45909.48989583334</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44664</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>45691</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24731,7 +24731,7 @@
         <v>45909.33440972222</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>44613.77238425926</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24845,7 +24845,7 @@
         <v>45841.55199074074</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>45840.41451388889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>45840.68381944444</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>45842.62363425926</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>45911.66671296296</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>45666</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>45911.68295138889</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>45520</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>44613</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>45807</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>45225</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>45148.64976851852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25544,7 +25544,7 @@
         <v>45842.97236111111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25601,7 +25601,7 @@
         <v>45685.66459490741</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25658,7 +25658,7 @@
         <v>45686</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25720,7 +25720,7 @@
         <v>45842.98429398148</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25777,7 +25777,7 @@
         <v>45341.70582175926</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>45758.32872685185</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>45758.33064814815</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>45244.56943287037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26015,7 +26015,7 @@
         <v>45102.33054398148</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>45102.59896990741</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26139,7 +26139,7 @@
         <v>44894.68043981482</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>45063.47773148148</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>45467</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26310,7 +26310,7 @@
         <v>45719.59866898148</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26367,7 +26367,7 @@
         <v>45916.66152777777</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>44496</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>45770.65739583333</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>45572</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>45593</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>45919.39731481481</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>45202</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45918.54903935185</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>45919.40252314815</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>44963.62001157407</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>44874.38325231482</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>44341.590625</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>45923.44583333333</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>45923.44844907407</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27195,7 +27195,7 @@
         <v>44896.56266203704</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27252,7 +27252,7 @@
         <v>44896.57527777777</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27309,7 +27309,7 @@
         <v>45923.44094907407</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>45695</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>45866.48244212963</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27485,7 +27485,7 @@
         <v>45924.39706018518</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27542,7 +27542,7 @@
         <v>45759.56462962963</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>44461</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27656,7 +27656,7 @@
         <v>45924.52100694444</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45924.52010416667</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27780,7 +27780,7 @@
         <v>45187.71274305556</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27842,7 +27842,7 @@
         <v>45869.4290625</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27899,7 +27899,7 @@
         <v>45927.00606481481</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27956,7 +27956,7 @@
         <v>45770.4015625</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28018,7 +28018,7 @@
         <v>45678</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28075,7 +28075,7 @@
         <v>45872.47782407407</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>45930.56626157407</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>45872</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>45872.48738425926</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>45102</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45759.56894675926</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45760.55626157407</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28499,7 +28499,7 @@
         <v>45930.56592592593</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28556,7 +28556,7 @@
         <v>45930.56607638889</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>45872</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>45712.57872685185</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45931.47211805556</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45931.47542824074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45233.33221064815</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28908,7 +28908,7 @@
         <v>45516.57682870371</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28970,7 +28970,7 @@
         <v>44959.83037037037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29032,7 +29032,7 @@
         <v>44991</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29094,7 +29094,7 @@
         <v>45880</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29151,7 +29151,7 @@
         <v>44495</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29213,7 +29213,7 @@
         <v>45711.51902777778</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45711.53565972222</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29337,7 +29337,7 @@
         <v>45936.55887731481</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29399,7 +29399,7 @@
         <v>45880.70917824074</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29456,7 +29456,7 @@
         <v>45936</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29513,7 +29513,7 @@
         <v>44950</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>45880.7505787037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>45691</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29694,7 +29694,7 @@
         <v>45079.50289351852</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29751,7 +29751,7 @@
         <v>45519</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29813,7 +29813,7 @@
         <v>45519</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         <v>45937.43621527778</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29937,7 +29937,7 @@
         <v>44970.39591435185</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29994,7 +29994,7 @@
         <v>45937.43274305556</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30056,7 +30056,7 @@
         <v>44725</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30113,7 +30113,7 @@
         <v>45939.58928240741</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30170,7 +30170,7 @@
         <v>45433</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30227,7 +30227,7 @@
         <v>45746</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30284,7 +30284,7 @@
         <v>45929.5775</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30341,7 +30341,7 @@
         <v>45887.58370370371</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         <v>44928.40917824074</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30460,7 +30460,7 @@
         <v>44928.41822916667</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>45621.42747685185</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30579,7 +30579,7 @@
         <v>45940.37303240741</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>45805.67305555556</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30693,7 +30693,7 @@
         <v>45520.50712962963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30755,7 +30755,7 @@
         <v>45692</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30817,7 +30817,7 @@
         <v>45519.81043981481</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>45112.86422453704</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30941,7 +30941,7 @@
         <v>44476.3632175926</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>45646.47936342593</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>44644</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>45695</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>45947.57833333333</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31256,7 +31256,7 @@
         <v>45575.58836805556</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31313,7 +31313,7 @@
         <v>44687.78673611111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>45372</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31427,7 +31427,7 @@
         <v>45362.36296296296</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>45950.45677083333</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>45762.5966087963</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>45949.00917824074</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>45951.56679398148</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>45949.71568287037</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31779,7 +31779,7 @@
         <v>45948.99313657408</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         <v>45102.58728009259</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31898,7 +31898,7 @@
         <v>45949.70971064815</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>44903</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>45496</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32079,7 +32079,7 @@
         <v>45953.67853009259</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32141,7 +32141,7 @@
         <v>44591</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32198,7 +32198,7 @@
         <v>45904.50652777778</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32255,7 +32255,7 @@
         <v>45230.76862268519</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32312,7 +32312,7 @@
         <v>45174.62788194444</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32374,7 +32374,7 @@
         <v>45040.47081018519</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32431,7 +32431,7 @@
         <v>45090</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32493,7 +32493,7 @@
         <v>45218.5586574074</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32550,7 +32550,7 @@
         <v>45239</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32607,7 +32607,7 @@
         <v>45044</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32664,7 +32664,7 @@
         <v>44905.50363425926</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32721,7 +32721,7 @@
         <v>45755.64612268518</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32783,7 +32783,7 @@
         <v>45482</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32845,7 +32845,7 @@
         <v>45572</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32902,7 +32902,7 @@
         <v>45960</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32959,7 +32959,7 @@
         <v>45960</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33016,7 +33016,7 @@
         <v>45960</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>45961</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33130,7 +33130,7 @@
         <v>45358</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>45520</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33254,7 +33254,7 @@
         <v>44631.92662037037</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33316,7 +33316,7 @@
         <v>45960.64431712963</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33378,7 +33378,7 @@
         <v>45160</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33435,7 +33435,7 @@
         <v>45960.64520833334</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>45138</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>45964.63251157408</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33611,7 +33611,7 @@
         <v>45691</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33668,7 +33668,7 @@
         <v>44943</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>45965.74545138889</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>45712.59412037037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44796.66613425926</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         <v>44586</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>45384.65465277778</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>45093</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>44973.57263888889</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>45966.37258101852</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>45966.37548611111</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>45394.46115740741</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>45969.76908564815</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34367,7 +34367,7 @@
         <v>45054.65834490741</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34424,7 +34424,7 @@
         <v>45968.48032407407</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34481,7 +34481,7 @@
         <v>45743.67333333333</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34538,7 +34538,7 @@
         <v>45007.37081018519</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45972.66209490741</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34657,7 +34657,7 @@
         <v>45568</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34714,7 +34714,7 @@
         <v>45975.4581712963</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34771,7 +34771,7 @@
         <v>45975</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34828,7 +34828,7 @@
         <v>45975.54730324074</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34885,7 +34885,7 @@
         <v>45975.64628472222</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34942,7 +34942,7 @@
         <v>45975.65431712963</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34999,7 +34999,7 @@
         <v>45978.37162037037</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35056,7 +35056,7 @@
         <v>45720.41847222222</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35113,7 +35113,7 @@
         <v>45978.62611111111</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35170,7 +35170,7 @@
         <v>44295.65875</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35232,7 +35232,7 @@
         <v>44993.60099537037</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35294,7 +35294,7 @@
         <v>45978.36412037037</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>45978.36157407407</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35413,7 +35413,7 @@
         <v>45979.65149305556</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35470,7 +35470,7 @@
         <v>45979.635625</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35532,7 +35532,7 @@
         <v>45978.36700231482</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35589,7 +35589,7 @@
         <v>45978.36677083333</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35651,7 +35651,7 @@
         <v>45978.46484953703</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>45979.51086805556</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
         <v>44732.464375</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35822,7 +35822,7 @@
         <v>45743.42427083333</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35879,7 +35879,7 @@
         <v>45981.78840277778</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35941,7 +35941,7 @@
         <v>44655.80475694445</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35998,7 +35998,7 @@
         <v>45981.78886574074</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36060,7 +36060,7 @@
         <v>45985.56244212963</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         <v>45197.49262731482</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36174,7 +36174,7 @@
         <v>45194.57125</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36236,7 +36236,7 @@
         <v>44660.4987962963</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36298,7 +36298,7 @@
         <v>45436</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36355,7 +36355,7 @@
         <v>45761.53104166667</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>45761.54925925926</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44915.59418981482</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>45992.57708333333</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36598,7 +36598,7 @@
         <v>45992.50333333333</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36660,7 +36660,7 @@
         <v>45992.50802083333</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36722,7 +36722,7 @@
         <v>45992.57668981481</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36784,7 +36784,7 @@
         <v>46035.55158564815</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36846,7 +36846,7 @@
         <v>45123.88789351852</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36908,7 +36908,7 @@
         <v>46037.58893518519</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36965,7 +36965,7 @@
         <v>46037.59137731481</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         <v>46034</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         <v>46034</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37136,7 +37136,7 @@
         <v>45669.67625</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37193,7 +37193,7 @@
         <v>45670.47300925926</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37255,7 +37255,7 @@
         <v>45979.51591435185</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37312,7 +37312,7 @@
         <v>45996.83506944445</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37369,7 +37369,7 @@
         <v>44726.42716435185</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         <v>44598.82957175926</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37488,7 +37488,7 @@
         <v>45996.3543287037</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37545,7 +37545,7 @@
         <v>46040.90493055555</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37602,7 +37602,7 @@
         <v>45282</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37664,7 +37664,7 @@
         <v>45999.59837962963</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>46039.39636574074</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37783,7 +37783,7 @@
         <v>45096.65381944444</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37845,7 +37845,7 @@
         <v>45692</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37902,7 +37902,7 @@
         <v>46043.781875</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37959,7 +37959,7 @@
         <v>46000.66645833333</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38021,7 +38021,7 @@
         <v>45107</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38083,7 +38083,7 @@
         <v>46000.6669675926</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38145,7 +38145,7 @@
         <v>45259</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38202,7 +38202,7 @@
         <v>45621.4405787037</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38264,7 +38264,7 @@
         <v>46043.35760416667</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38321,7 +38321,7 @@
         <v>46043.41212962963</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38378,7 +38378,7 @@
         <v>46000.53084490741</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38440,7 +38440,7 @@
         <v>46000.53493055556</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38502,7 +38502,7 @@
         <v>44775</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38559,7 +38559,7 @@
         <v>45761.54710648148</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38621,7 +38621,7 @@
         <v>44523</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38678,7 +38678,7 @@
         <v>46003.35675925926</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38735,7 +38735,7 @@
         <v>44981</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38797,7 +38797,7 @@
         <v>44803.78524305556</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38859,7 +38859,7 @@
         <v>44676</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38916,7 +38916,7 @@
         <v>46044.33802083333</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38978,7 +38978,7 @@
         <v>45589.58766203704</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39035,7 +39035,7 @@
         <v>45740.64078703704</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39092,7 +39092,7 @@
         <v>44596.63290509259</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39149,7 +39149,7 @@
         <v>45736</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39206,7 +39206,7 @@
         <v>45628.39877314815</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39263,7 +39263,7 @@
         <v>45720.39715277778</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39320,7 +39320,7 @@
         <v>45082.62603009259</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39377,7 +39377,7 @@
         <v>46048.00856481482</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39439,7 +39439,7 @@
         <v>44972.34811342593</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         <v>45047</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39563,7 +39563,7 @@
         <v>44952</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39620,7 +39620,7 @@
         <v>44775.400625</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>46050.59346064815</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39739,7 +39739,7 @@
         <v>46008.57596064815</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39796,7 +39796,7 @@
         <v>45154.55175925926</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>44938</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39910,7 +39910,7 @@
         <v>45712.47983796296</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39967,7 +39967,7 @@
         <v>45712</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40024,7 +40024,7 @@
         <v>45114</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40086,7 +40086,7 @@
         <v>45090.63300925926</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40148,7 +40148,7 @@
         <v>46055.45547453704</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40210,7 +40210,7 @@
         <v>44588</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         <v>45677</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40329,7 +40329,7 @@
         <v>44525</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         <v>45162</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40448,7 +40448,7 @@
         <v>44512</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40505,7 +40505,7 @@
         <v>46056.65564814815</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40567,7 +40567,7 @@
         <v>46056.85776620371</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40624,7 +40624,7 @@
         <v>46057.46614583334</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40681,7 +40681,7 @@
         <v>46056.38925925926</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40743,7 +40743,7 @@
         <v>46056.4025</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40805,7 +40805,7 @@
         <v>46056.39921296296</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40867,7 +40867,7 @@
         <v>44890.75795138889</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>46056.52885416667</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40991,7 +40991,7 @@
         <v>44895.36748842592</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44908.69575231482</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44973.66458333333</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>44466</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>45702.47630787037</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41286,7 +41286,7 @@
         <v>46058.58392361111</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41348,7 +41348,7 @@
         <v>44553.80824074074</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41410,7 +41410,7 @@
         <v>46058.6049537037</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41472,7 +41472,7 @@
         <v>45680</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41534,7 +41534,7 @@
         <v>45680</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41596,7 +41596,7 @@
         <v>45692</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41653,7 +41653,7 @@
         <v>44874</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41715,7 +41715,7 @@
         <v>46063.54009259259</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41772,7 +41772,7 @@
         <v>44515</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>45170.45050925926</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41891,7 +41891,7 @@
         <v>45713</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41948,7 +41948,7 @@
         <v>46063.57956018519</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42005,7 +42005,7 @@
         <v>46062.67241898148</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42062,7 +42062,7 @@
         <v>45012.7975</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42124,7 +42124,7 @@
         <v>46063.70094907407</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42181,7 +42181,7 @@
         <v>45202.55721064815</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42238,7 +42238,7 @@
         <v>44586.64851851852</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42300,7 +42300,7 @@
         <v>46064.54721064815</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42357,7 +42357,7 @@
         <v>44376.52438657408</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42414,7 +42414,7 @@
         <v>46064.56945601852</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42471,7 +42471,7 @@
         <v>46065.58760416666</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42533,7 +42533,7 @@
         <v>46065.60075231481</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42595,7 +42595,7 @@
         <v>45462</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42657,7 +42657,7 @@
         <v>46026.84339120371</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42714,7 +42714,7 @@
         <v>45005</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42771,7 +42771,7 @@
         <v>44715</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42828,7 +42828,7 @@
         <v>45195</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         <v>46027.66442129629</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42947,7 +42947,7 @@
         <v>44609</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43004,7 +43004,7 @@
         <v>46027.49130787037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43066,7 +43066,7 @@
         <v>46066.58792824074</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43123,7 +43123,7 @@
         <v>44523.46197916667</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43180,7 +43180,7 @@
         <v>46027.6659375</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43242,7 +43242,7 @@
         <v>44660.91659722223</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43304,7 +43304,7 @@
         <v>44684</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43361,7 +43361,7 @@
         <v>46029.56026620371</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43423,7 +43423,7 @@
         <v>45834.67556712963</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43480,7 +43480,7 @@
         <v>44602</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43542,7 +43542,7 @@
         <v>44916</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43599,7 +43599,7 @@
         <v>44978</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43661,7 +43661,7 @@
         <v>46029.57829861111</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         <v>45040</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43780,7 +43780,7 @@
         <v>45203</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43842,7 +43842,7 @@
         <v>45387.3503125</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43899,7 +43899,7 @@
         <v>44361</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43956,7 +43956,7 @@
         <v>45233</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44018,7 +44018,7 @@
         <v>45225.76836805556</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44075,7 +44075,7 @@
         <v>44330</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44132,7 +44132,7 @@
         <v>46030.58104166666</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44189,7 +44189,7 @@
         <v>46072.36847222222</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44251,7 +44251,7 @@
         <v>46072.36732638889</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44313,7 +44313,7 @@
         <v>44805.63708333333</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44370,7 +44370,7 @@
         <v>44883</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44427,7 +44427,7 @@
         <v>46031.46616898148</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44489,7 +44489,7 @@
         <v>46031.63748842593</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44551,7 +44551,7 @@
         <v>44501.76855324074</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44613,7 +44613,7 @@
         <v>45617</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44670,7 +44670,7 @@
         <v>44979</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44732,7 +44732,7 @@
         <v>45476.77056712963</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44794,7 +44794,7 @@
         <v>44308</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44851,7 +44851,7 @@
         <v>45758.32454861111</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44913,7 +44913,7 @@
         <v>44998.66662037037</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44970,7 +44970,7 @@
         <v>45560.44158564815</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45027,7 +45027,7 @@
         <v>44665</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45089,7 +45089,7 @@
         <v>45142.48359953704</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45151,7 +45151,7 @@
         <v>45076.71652777777</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45545</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>44683</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>45072</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>44631.43116898148</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>44591.59170138889</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>45455</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45565,7 +45565,7 @@
         <v>45089</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45622,7 +45622,7 @@
         <v>44371.45335648148</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45684,7 +45684,7 @@
         <v>44909</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45741,7 +45741,7 @@
         <v>44824</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45803,7 +45803,7 @@
         <v>44890</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45865,7 +45865,7 @@
         <v>44923.82017361111</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45927,7 +45927,7 @@
         <v>44327.61518518518</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45989,7 +45989,7 @@
         <v>44977</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46051,7 +46051,7 @@
         <v>44425.35016203704</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46113,7 +46113,7 @@
         <v>44795.61990740741</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46175,7 +46175,7 @@
         <v>45684</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46232,7 +46232,7 @@
         <v>45621.4350462963</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46294,7 +46294,7 @@
         <v>45621.43712962963</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46356,7 +46356,7 @@
         <v>45621.43855324074</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46418,7 +46418,7 @@
         <v>44949.4377662037</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46475,7 +46475,7 @@
         <v>45176</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46532,7 +46532,7 @@
         <v>45146</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46589,7 +46589,7 @@
         <v>45740.64327546296</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46646,7 +46646,7 @@
         <v>45760.55842592593</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46708,7 +46708,7 @@
         <v>44998</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46765,7 +46765,7 @@
         <v>44522.31700231481</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46822,7 +46822,7 @@
         <v>44376</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46879,7 +46879,7 @@
         <v>45078</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46941,7 +46941,7 @@
         <v>45760.55671296296</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47003,7 +47003,7 @@
         <v>44578</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47060,7 +47060,7 @@
         <v>45213.84846064815</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47117,7 +47117,7 @@
         <v>44810</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47174,7 +47174,7 @@
         <v>45259</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47231,7 +47231,7 @@
         <v>44841.40452546296</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47288,7 +47288,7 @@
         <v>44550</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47345,7 +47345,7 @@
         <v>45337.4219212963</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47402,7 +47402,7 @@
         <v>44923.7849537037</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47464,7 +47464,7 @@
         <v>45225</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47521,7 +47521,7 @@
         <v>45076</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47578,7 +47578,7 @@
         <v>44953.48619212963</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47635,7 +47635,7 @@
         <v>45250.49961805555</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47692,7 +47692,7 @@
         <v>44552.36974537037</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47749,7 +47749,7 @@
         <v>45467.63127314814</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47811,7 +47811,7 @@
         <v>45147.37006944444</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47868,7 +47868,7 @@
         <v>44783.70378472222</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47930,7 +47930,7 @@
         <v>45761.87114583333</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47992,7 +47992,7 @@
         <v>44973</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48054,7 +48054,7 @@
         <v>45007</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48111,7 +48111,7 @@
         <v>45007</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48168,7 +48168,7 @@
         <v>44972</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48230,7 +48230,7 @@
         <v>45213</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48287,7 +48287,7 @@
         <v>45687.8313425926</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48344,7 +48344,7 @@
         <v>44295.63969907408</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48406,7 +48406,7 @@
         <v>45520.56896990741</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48463,7 +48463,7 @@
         <v>44725</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48520,7 +48520,7 @@
         <v>45040</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48577,7 +48577,7 @@
         <v>44915.55423611111</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48634,7 +48634,7 @@
         <v>45097</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48691,7 +48691,7 @@
         <v>44531.61038194445</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48753,7 +48753,7 @@
         <v>45468</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48810,7 +48810,7 @@
         <v>45701.83930555556</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48867,7 +48867,7 @@
         <v>44496.57019675926</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48924,7 +48924,7 @@
         <v>45721</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48986,7 +48986,7 @@
         <v>44938</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49043,7 +49043,7 @@
         <v>45597</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49100,7 +49100,7 @@
         <v>45778.415625</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49157,7 +49157,7 @@
         <v>45778.4108912037</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49214,7 +49214,7 @@
         <v>45562</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49276,7 +49276,7 @@
         <v>45538.71109953704</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49338,7 +49338,7 @@
         <v>45520.51063657407</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49400,7 +49400,7 @@
         <v>45569</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49457,7 +49457,7 @@
         <v>45786.64865740741</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49519,7 +49519,7 @@
         <v>45013.57858796296</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49576,7 +49576,7 @@
         <v>45513.36644675926</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49638,7 +49638,7 @@
         <v>45546.64221064815</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49700,7 +49700,7 @@
         <v>45569</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49757,7 +49757,7 @@
         <v>45574</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49814,7 +49814,7 @@
         <v>45572</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49871,7 +49871,7 @@
         <v>44598.82700231481</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49933,7 +49933,7 @@
         <v>45569.57518518518</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49990,7 +49990,7 @@
         <v>45572.52690972222</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50047,7 +50047,7 @@
         <v>45786.65072916666</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50109,7 +50109,7 @@
         <v>45786.64141203704</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50171,7 +50171,7 @@
         <v>45253.57559027777</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50228,7 +50228,7 @@
         <v>45791.60127314815</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50285,7 +50285,7 @@
         <v>45670</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50342,7 +50342,7 @@
         <v>45499.47106481482</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50404,7 +50404,7 @@
         <v>45456</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         <v>45797.67381944445</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50523,7 +50523,7 @@
         <v>45796</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50585,7 +50585,7 @@
         <v>45796.69207175926</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50642,7 +50642,7 @@
         <v>45460</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50704,7 +50704,7 @@
         <v>45799.66876157407</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50766,7 +50766,7 @@
         <v>45799.56347222222</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50823,7 +50823,7 @@
         <v>45734.38159722222</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50880,7 +50880,7 @@
         <v>45524</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50937,7 +50937,7 @@
         <v>45749.84232638889</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50999,7 +50999,7 @@
         <v>45740.51895833333</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51056,7 +51056,7 @@
         <v>45632.59780092593</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51113,7 +51113,7 @@
         <v>45805.68263888889</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51170,7 +51170,7 @@
         <v>45805.65960648148</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51227,7 +51227,7 @@
         <v>45804.77559027778</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51289,7 +51289,7 @@
         <v>45807.56275462963</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         <v>45807.56612268519</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51403,7 +51403,7 @@
         <v>45811</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51460,7 +51460,7 @@
         <v>45811</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51517,7 +51517,7 @@
         <v>45811.63436342592</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51579,7 +51579,7 @@
         <v>45812.62390046296</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51636,7 +51636,7 @@
         <v>45812.68268518519</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51698,7 +51698,7 @@
         <v>45812.62694444445</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51755,7 +51755,7 @@
         <v>45812.62571759259</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51812,7 +51812,7 @@
         <v>45812.66628472223</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51869,7 +51869,7 @@
         <v>45812.66829861111</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51926,7 +51926,7 @@
         <v>45812.6850462963</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51988,7 +51988,7 @@
         <v>45813.48471064815</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52050,7 +52050,7 @@
         <v>45817.48384259259</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>45817.40178240741</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52174,7 +52174,7 @@
         <v>45817.32150462963</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>

--- a/Översikt ÖSTHAMMAR.xlsx
+++ b/Översikt ÖSTHAMMAR.xlsx
@@ -575,7 +575,7 @@
         <v>45106</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         <v>45660</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>45590</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>45439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45575</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>45681</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>46048.35861111111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45996.83012731482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45106</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>45572</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44482</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>44938</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>45895.57082175926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>45895.55805555556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>44771</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>45226</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45622</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>45660</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>45746</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>45746</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>46009</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>46071.65847222223</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>44387</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44779</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>45891.56333333333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>45205</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>45076</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45198</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44819.44055555556</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>44511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>44614</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45238</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44662</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>45947.57583333334</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>44727</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44837</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>45076</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>46030.66722222222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45804.79280092593</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>44875</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>44684</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>44376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>45999.56931712963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44559</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>45468</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>44858</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>45617</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>44474</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>44984.43856481482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>44376</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>45362.53928240741</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>45190</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         <v>46056.44011574074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44739</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>45799.66607638889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>45412</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>44495</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>44515.45704861111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>44778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>45425.63697916667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>45898.69215277778</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45840.68208333333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>45775.63983796296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>45880</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>44644</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>45499</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>45975.69306712963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>45362.37055555556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>45999.58256944444</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>46001.47858796296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>45468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>44525</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>45063</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>44555</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>45063</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44729.44149305556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>45677</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44813</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>44501</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>44455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44874</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>44455</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>44606</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>45070</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>45831.45510416666</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>45898.58630787037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>45583.33221064815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>44985</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>44607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>45957.544375</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>44712</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>45384</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44728</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>45078</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>46001.51974537037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45520</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>45013</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>46048.46175925926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44572.57641203704</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>45135</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44991</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>46002</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44875</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>46056.38474537037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10497,7 +10497,7 @@
         <v>45156</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44517</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10667,7 +10667,7 @@
         <v>45446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>44536</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>45107</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44509</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>45393</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         <v>44555.80506944445</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11163,7 +11163,7 @@
         <v>44536</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11220,7 +11220,7 @@
         <v>44729</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44732.48165509259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44622</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11458,7 +11458,7 @@
         <v>44501.4250462963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>44687.68890046296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>44687</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>44622</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44664</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44651.88756944444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44644</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44868</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44498</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44491.53787037037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>44838.82126157408</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>44577.83829861111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>44336</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
         <v>44691</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         <v>44461</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>44368</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12400,7 +12400,7 @@
         <v>44661.73925925926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>44649.90252314815</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44525.48695601852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44347</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>44622</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44342.59954861111</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44342.62907407407</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44622</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44613.51798611111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44376.32519675926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44278</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>44588</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>44725.45895833334</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>44852.59962962963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44519.3990162037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44598.8281712963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44450</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44462</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44692.49559027778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44694</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44659</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44512.6108912037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44432</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44865</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44715.91158564815</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44664</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44757.75236111111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>44861</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44589.66446759259</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44873.67842592593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>44425.37835648148</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44661.74027777778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44734.49601851852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44501.42905092592</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44809</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44809.63373842592</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>44813</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44810</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44635.68695601852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44712.51509259259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>44669.36354166667</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>44687.87017361111</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44728</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>44608</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>44872.62109953703</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44770</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>44739</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>44467</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44578</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>44687.86751157408</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>44635.39946759259</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44676</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>44309.28576388889</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44620.35590277778</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44643.4372337963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44669</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44337</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44715</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44466</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>44792</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>44482.47577546296</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44809</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>44576.78626157407</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>45114.79793981482</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>45758.33304398148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44560.4502199074</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>45208.70452546296</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44775</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>45068</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>45621.43098379629</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>45271</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>44991.62203703704</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44591.51854166666</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>45107</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>45448</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>45775.44483796296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44739</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>45054</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>45110.43907407407</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44755</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44783.69886574074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45212.71481481481</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>45191</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44915.59645833333</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>45711.52333333333</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44651.5625</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44643.93269675926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44599.72306712963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>45045</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44599</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44651.40924768519</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>45250.58635416667</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17993,7 +17993,7 @@
         <v>44706</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45670</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18107,7 +18107,7 @@
         <v>45684</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44768.88685185185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44860</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>45665.58465277778</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44987</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>45670</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>45230.77258101852</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>45685.68193287037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>44814.5991087963</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>45154</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>45735</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>45669.69075231482</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>45670</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>45162.6177662037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18935,7 +18935,7 @@
         <v>44963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>45733.41601851852</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19049,7 +19049,7 @@
         <v>44874</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>45574.65427083334</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>45257</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44746.65873842593</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>45194.59335648148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44287</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>45212.71241898148</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>45530.68873842592</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45772</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44991.9321412037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45146.68921296296</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45516.72097222223</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
         <v>44600.35755787037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19820,7 +19820,7 @@
         <v>44511</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
         <v>44533.44887731481</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19939,7 +19939,7 @@
         <v>45063.65543981481</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>45561</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>44555.80339120371</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>44308</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45455</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
         <v>45817.48454861111</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>45708</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>45329</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>45813.4278125</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20482,7 +20482,7 @@
         <v>45337.36831018519</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         <v>45819</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44515</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
         <v>45793.41719907407</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20720,7 +20720,7 @@
         <v>45820.39076388889</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>45820.39540509259</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20834,7 +20834,7 @@
         <v>44572.5827662037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20891,7 +20891,7 @@
         <v>45821.43233796296</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20948,7 +20948,7 @@
         <v>45821.44159722222</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>45820</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         <v>45544</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45821.4384375</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>45821.43973379629</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>45462</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>45751</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>45813.39756944445</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>45824</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>45813.39273148148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>45825.63803240741</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>45813.38521990741</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44770.42166666667</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>45827.40902777778</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21786,7 +21786,7 @@
         <v>44560.43136574074</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>44365</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21910,7 +21910,7 @@
         <v>45895.54085648148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21967,7 +21967,7 @@
         <v>45895.53020833333</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22024,7 +22024,7 @@
         <v>45895.53689814815</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22081,7 +22081,7 @@
         <v>45419.44106481481</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
         <v>45895.65013888889</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         <v>44953.48179398148</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22252,7 +22252,7 @@
         <v>45895.65179398148</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22309,7 +22309,7 @@
         <v>45894.34747685185</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22371,7 +22371,7 @@
         <v>45894.40133101852</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>45831.45965277778</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>45830.8558912037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>45830.8500462963</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>45152.37296296296</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>45895.57736111111</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>44970</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>45093.47947916666</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>45832.89476851852</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>45896.47878472223</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>45833.68211805556</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>45833.43527777777</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>45758.32645833334</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44308</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>45758.33583333333</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>45901.54751157408</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>45337.41784722222</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>45379.61878472222</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>45713.4196875</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23494,7 +23494,7 @@
         <v>45659</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>45835.34184027778</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45835.3554050926</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>45797.64908564815</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>45797.65774305556</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>45358</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         <v>45520</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>45813.37517361111</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>45839.37740740741</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>45797.63553240741</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>45812.6672337963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>45075</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>45609.55065972222</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>44643</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>45678</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>45757.40733796296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>45817.82967592592</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>45384</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>45909.48989583334</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44664</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>45691</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24731,7 +24731,7 @@
         <v>45909.33440972222</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>44613.77238425926</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24845,7 +24845,7 @@
         <v>45841.55199074074</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>45840.41451388889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>45840.68381944444</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>45842.62363425926</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>45911.66671296296</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>45666</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>45911.68295138889</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>45520</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>44613</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>45807</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>45225</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>45148.64976851852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25544,7 +25544,7 @@
         <v>45842.97236111111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25601,7 +25601,7 @@
         <v>45685.66459490741</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25658,7 +25658,7 @@
         <v>45686</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25720,7 +25720,7 @@
         <v>45842.98429398148</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25777,7 +25777,7 @@
         <v>45341.70582175926</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>45758.32872685185</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>45758.33064814815</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>45244.56943287037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26015,7 +26015,7 @@
         <v>45102.33054398148</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>45102.59896990741</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26139,7 +26139,7 @@
         <v>44894.68043981482</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>45063.47773148148</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>45467</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26310,7 +26310,7 @@
         <v>45719.59866898148</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26367,7 +26367,7 @@
         <v>45916.66152777777</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>44496</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>45770.65739583333</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>45572</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>45593</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>45919.39731481481</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>45202</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45918.54903935185</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>45919.40252314815</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>44963.62001157407</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>44874.38325231482</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>44341.590625</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>45923.44583333333</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>45923.44844907407</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27195,7 +27195,7 @@
         <v>44896.56266203704</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27252,7 +27252,7 @@
         <v>44896.57527777777</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27309,7 +27309,7 @@
         <v>45923.44094907407</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>45695</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>45866.48244212963</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27485,7 +27485,7 @@
         <v>45924.39706018518</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27542,7 +27542,7 @@
         <v>45759.56462962963</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>44461</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27656,7 +27656,7 @@
         <v>45924.52100694444</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45924.52010416667</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27780,7 +27780,7 @@
         <v>45187.71274305556</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27842,7 +27842,7 @@
         <v>45869.4290625</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27899,7 +27899,7 @@
         <v>45927.00606481481</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27956,7 +27956,7 @@
         <v>45770.4015625</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28018,7 +28018,7 @@
         <v>45678</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28075,7 +28075,7 @@
         <v>45872.47782407407</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>45930.56626157407</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>45872</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>45872.48738425926</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>45102</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45759.56894675926</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45760.55626157407</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28499,7 +28499,7 @@
         <v>45930.56592592593</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28556,7 +28556,7 @@
         <v>45930.56607638889</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>45872</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>45712.57872685185</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45931.47211805556</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45931.47542824074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45233.33221064815</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28908,7 +28908,7 @@
         <v>45516.57682870371</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28970,7 +28970,7 @@
         <v>44959.83037037037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29032,7 +29032,7 @@
         <v>44991</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29094,7 +29094,7 @@
         <v>45880</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29151,7 +29151,7 @@
         <v>44495</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29213,7 +29213,7 @@
         <v>45711.51902777778</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45711.53565972222</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29337,7 +29337,7 @@
         <v>45936.55887731481</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29399,7 +29399,7 @@
         <v>45880.70917824074</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29456,7 +29456,7 @@
         <v>45936</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29513,7 +29513,7 @@
         <v>44950</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>45880.7505787037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>45691</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29694,7 +29694,7 @@
         <v>45079.50289351852</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29751,7 +29751,7 @@
         <v>45519</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29813,7 +29813,7 @@
         <v>45519</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         <v>45937.43621527778</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29937,7 +29937,7 @@
         <v>44970.39591435185</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29994,7 +29994,7 @@
         <v>45937.43274305556</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30056,7 +30056,7 @@
         <v>44725</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30113,7 +30113,7 @@
         <v>45939.58928240741</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30170,7 +30170,7 @@
         <v>45433</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30227,7 +30227,7 @@
         <v>45746</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30284,7 +30284,7 @@
         <v>45929.5775</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30341,7 +30341,7 @@
         <v>45887.58370370371</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         <v>44928.40917824074</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30460,7 +30460,7 @@
         <v>44928.41822916667</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>45621.42747685185</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30579,7 +30579,7 @@
         <v>45940.37303240741</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>45805.67305555556</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30693,7 +30693,7 @@
         <v>45520.50712962963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30755,7 +30755,7 @@
         <v>45692</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30817,7 +30817,7 @@
         <v>45519.81043981481</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>45112.86422453704</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30941,7 +30941,7 @@
         <v>44476.3632175926</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>45646.47936342593</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>44644</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>45695</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>45947.57833333333</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31256,7 +31256,7 @@
         <v>45575.58836805556</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31313,7 +31313,7 @@
         <v>44687.78673611111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>45372</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31427,7 +31427,7 @@
         <v>45362.36296296296</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>45950.45677083333</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>45762.5966087963</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>45949.00917824074</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>45951.56679398148</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>45949.71568287037</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31779,7 +31779,7 @@
         <v>45948.99313657408</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         <v>45102.58728009259</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31898,7 +31898,7 @@
         <v>45949.70971064815</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>44903</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>45496</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32079,7 +32079,7 @@
         <v>45953.67853009259</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32141,7 +32141,7 @@
         <v>44591</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32198,7 +32198,7 @@
         <v>45904.50652777778</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32255,7 +32255,7 @@
         <v>45230.76862268519</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32312,7 +32312,7 @@
         <v>45174.62788194444</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32374,7 +32374,7 @@
         <v>45040.47081018519</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32431,7 +32431,7 @@
         <v>45090</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32493,7 +32493,7 @@
         <v>45218.5586574074</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32550,7 +32550,7 @@
         <v>45239</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32607,7 +32607,7 @@
         <v>45044</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32664,7 +32664,7 @@
         <v>44905.50363425926</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32721,7 +32721,7 @@
         <v>45755.64612268518</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32783,7 +32783,7 @@
         <v>45482</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32845,7 +32845,7 @@
         <v>45572</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32902,7 +32902,7 @@
         <v>45960</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32959,7 +32959,7 @@
         <v>45960</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33016,7 +33016,7 @@
         <v>45960</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>45961</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33130,7 +33130,7 @@
         <v>45358</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>45520</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33254,7 +33254,7 @@
         <v>44631.92662037037</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33316,7 +33316,7 @@
         <v>45960.64431712963</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33378,7 +33378,7 @@
         <v>45160</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33435,7 +33435,7 @@
         <v>45960.64520833334</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>45138</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>45964.63251157408</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33611,7 +33611,7 @@
         <v>45691</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33668,7 +33668,7 @@
         <v>44943</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>45965.74545138889</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>45712.59412037037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44796.66613425926</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         <v>44586</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>45384.65465277778</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>45093</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>44973.57263888889</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>45966.37258101852</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>45966.37548611111</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>45394.46115740741</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>45969.76908564815</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34367,7 +34367,7 @@
         <v>45054.65834490741</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34424,7 +34424,7 @@
         <v>45968.48032407407</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34481,7 +34481,7 @@
         <v>45743.67333333333</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34538,7 +34538,7 @@
         <v>45007.37081018519</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45972.66209490741</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34657,7 +34657,7 @@
         <v>45568</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34714,7 +34714,7 @@
         <v>45975.4581712963</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34771,7 +34771,7 @@
         <v>45975</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34828,7 +34828,7 @@
         <v>45975.54730324074</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34885,7 +34885,7 @@
         <v>45975.64628472222</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34942,7 +34942,7 @@
         <v>45975.65431712963</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34999,7 +34999,7 @@
         <v>45978.37162037037</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35056,7 +35056,7 @@
         <v>45720.41847222222</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35113,7 +35113,7 @@
         <v>45978.62611111111</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35170,7 +35170,7 @@
         <v>44295.65875</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35232,7 +35232,7 @@
         <v>44993.60099537037</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35294,7 +35294,7 @@
         <v>45978.36412037037</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>45978.36157407407</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35413,7 +35413,7 @@
         <v>45979.65149305556</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35470,7 +35470,7 @@
         <v>45979.635625</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35532,7 +35532,7 @@
         <v>45978.36700231482</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35589,7 +35589,7 @@
         <v>45978.36677083333</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35651,7 +35651,7 @@
         <v>45978.46484953703</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>45979.51086805556</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
         <v>44732.464375</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35822,7 +35822,7 @@
         <v>45743.42427083333</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35879,7 +35879,7 @@
         <v>45981.78840277778</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35941,7 +35941,7 @@
         <v>44655.80475694445</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35998,7 +35998,7 @@
         <v>45981.78886574074</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36060,7 +36060,7 @@
         <v>45985.56244212963</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         <v>45197.49262731482</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36174,7 +36174,7 @@
         <v>45194.57125</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36236,7 +36236,7 @@
         <v>44660.4987962963</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36298,7 +36298,7 @@
         <v>45436</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36355,7 +36355,7 @@
         <v>45761.53104166667</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>45761.54925925926</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44915.59418981482</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>45992.57708333333</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36598,7 +36598,7 @@
         <v>45992.50333333333</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36660,7 +36660,7 @@
         <v>45992.50802083333</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36722,7 +36722,7 @@
         <v>45992.57668981481</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36784,7 +36784,7 @@
         <v>46035.55158564815</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36846,7 +36846,7 @@
         <v>45123.88789351852</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36908,7 +36908,7 @@
         <v>46037.58893518519</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36965,7 +36965,7 @@
         <v>46037.59137731481</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         <v>46034</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         <v>46034</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37136,7 +37136,7 @@
         <v>45669.67625</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37193,7 +37193,7 @@
         <v>45670.47300925926</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37255,7 +37255,7 @@
         <v>45979.51591435185</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37312,7 +37312,7 @@
         <v>45996.83506944445</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37369,7 +37369,7 @@
         <v>44726.42716435185</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         <v>44598.82957175926</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37488,7 +37488,7 @@
         <v>45996.3543287037</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37545,7 +37545,7 @@
         <v>46040.90493055555</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37602,7 +37602,7 @@
         <v>45282</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37664,7 +37664,7 @@
         <v>45999.59837962963</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>46039.39636574074</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37783,7 +37783,7 @@
         <v>45096.65381944444</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37845,7 +37845,7 @@
         <v>45692</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37902,7 +37902,7 @@
         <v>46043.781875</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37959,7 +37959,7 @@
         <v>46000.66645833333</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38021,7 +38021,7 @@
         <v>45107</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38083,7 +38083,7 @@
         <v>46000.6669675926</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38145,7 +38145,7 @@
         <v>45259</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38202,7 +38202,7 @@
         <v>45621.4405787037</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38264,7 +38264,7 @@
         <v>46043.35760416667</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38321,7 +38321,7 @@
         <v>46043.41212962963</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38378,7 +38378,7 @@
         <v>46000.53084490741</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38440,7 +38440,7 @@
         <v>46000.53493055556</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38502,7 +38502,7 @@
         <v>44775</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38559,7 +38559,7 @@
         <v>45761.54710648148</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38621,7 +38621,7 @@
         <v>44523</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38678,7 +38678,7 @@
         <v>46003.35675925926</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38735,7 +38735,7 @@
         <v>44981</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38797,7 +38797,7 @@
         <v>44803.78524305556</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38859,7 +38859,7 @@
         <v>44676</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38916,7 +38916,7 @@
         <v>46044.33802083333</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38978,7 +38978,7 @@
         <v>45589.58766203704</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39035,7 +39035,7 @@
         <v>45740.64078703704</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39092,7 +39092,7 @@
         <v>44596.63290509259</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39149,7 +39149,7 @@
         <v>45736</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39206,7 +39206,7 @@
         <v>45628.39877314815</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39263,7 +39263,7 @@
         <v>45720.39715277778</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39320,7 +39320,7 @@
         <v>45082.62603009259</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39377,7 +39377,7 @@
         <v>46048.00856481482</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39439,7 +39439,7 @@
         <v>44972.34811342593</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         <v>45047</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39563,7 +39563,7 @@
         <v>44952</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39620,7 +39620,7 @@
         <v>44775.400625</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>46050.59346064815</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39739,7 +39739,7 @@
         <v>46008.57596064815</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39796,7 +39796,7 @@
         <v>45154.55175925926</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>44938</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39910,7 +39910,7 @@
         <v>45712.47983796296</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39967,7 +39967,7 @@
         <v>45712</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40024,7 +40024,7 @@
         <v>45114</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40086,7 +40086,7 @@
         <v>45090.63300925926</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40148,7 +40148,7 @@
         <v>46055.45547453704</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40210,7 +40210,7 @@
         <v>44588</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         <v>45677</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40329,7 +40329,7 @@
         <v>44525</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         <v>45162</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40448,7 +40448,7 @@
         <v>44512</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40505,7 +40505,7 @@
         <v>46056.65564814815</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40567,7 +40567,7 @@
         <v>46056.85776620371</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40624,7 +40624,7 @@
         <v>46057.46614583334</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40681,7 +40681,7 @@
         <v>46056.38925925926</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40743,7 +40743,7 @@
         <v>46056.4025</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40805,7 +40805,7 @@
         <v>46056.39921296296</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40867,7 +40867,7 @@
         <v>44890.75795138889</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>46056.52885416667</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40991,7 +40991,7 @@
         <v>44895.36748842592</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44908.69575231482</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44973.66458333333</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>44466</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>45702.47630787037</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41286,7 +41286,7 @@
         <v>46058.58392361111</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41348,7 +41348,7 @@
         <v>44553.80824074074</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41410,7 +41410,7 @@
         <v>46058.6049537037</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41472,7 +41472,7 @@
         <v>45680</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41534,7 +41534,7 @@
         <v>45680</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41596,7 +41596,7 @@
         <v>45692</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41653,7 +41653,7 @@
         <v>44874</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41715,7 +41715,7 @@
         <v>46063.54009259259</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41772,7 +41772,7 @@
         <v>44515</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>45170.45050925926</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41891,7 +41891,7 @@
         <v>45713</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41948,7 +41948,7 @@
         <v>46063.57956018519</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42005,7 +42005,7 @@
         <v>46062.67241898148</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42062,7 +42062,7 @@
         <v>45012.7975</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42124,7 +42124,7 @@
         <v>46063.70094907407</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42181,7 +42181,7 @@
         <v>45202.55721064815</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42238,7 +42238,7 @@
         <v>44586.64851851852</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42300,7 +42300,7 @@
         <v>46064.54721064815</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42357,7 +42357,7 @@
         <v>44376.52438657408</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42414,7 +42414,7 @@
         <v>46064.56945601852</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42471,7 +42471,7 @@
         <v>46065.58760416666</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42533,7 +42533,7 @@
         <v>46065.60075231481</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42595,7 +42595,7 @@
         <v>45462</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42657,7 +42657,7 @@
         <v>46026.84339120371</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42714,7 +42714,7 @@
         <v>45005</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42771,7 +42771,7 @@
         <v>44715</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42828,7 +42828,7 @@
         <v>45195</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         <v>46027.66442129629</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42947,7 +42947,7 @@
         <v>44609</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43004,7 +43004,7 @@
         <v>46027.49130787037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43066,7 +43066,7 @@
         <v>46066.58792824074</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43123,7 +43123,7 @@
         <v>44523.46197916667</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43180,7 +43180,7 @@
         <v>46027.6659375</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43242,7 +43242,7 @@
         <v>44660.91659722223</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43304,7 +43304,7 @@
         <v>44684</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43361,7 +43361,7 @@
         <v>46029.56026620371</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43423,7 +43423,7 @@
         <v>45834.67556712963</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43480,7 +43480,7 @@
         <v>44602</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43542,7 +43542,7 @@
         <v>44916</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43599,7 +43599,7 @@
         <v>44978</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43661,7 +43661,7 @@
         <v>46029.57829861111</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         <v>45040</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43780,7 +43780,7 @@
         <v>45203</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43842,7 +43842,7 @@
         <v>45387.3503125</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43899,7 +43899,7 @@
         <v>44361</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43956,7 +43956,7 @@
         <v>45233</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44018,7 +44018,7 @@
         <v>45225.76836805556</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44075,7 +44075,7 @@
         <v>44330</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44132,7 +44132,7 @@
         <v>46030.58104166666</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44189,7 +44189,7 @@
         <v>46072.36847222222</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44251,7 +44251,7 @@
         <v>46072.36732638889</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44313,7 +44313,7 @@
         <v>44805.63708333333</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44370,7 +44370,7 @@
         <v>44883</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44427,7 +44427,7 @@
         <v>46031.46616898148</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44489,7 +44489,7 @@
         <v>46031.63748842593</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44551,7 +44551,7 @@
         <v>44501.76855324074</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44613,7 +44613,7 @@
         <v>45617</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44670,7 +44670,7 @@
         <v>44979</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44732,7 +44732,7 @@
         <v>45476.77056712963</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44794,7 +44794,7 @@
         <v>44308</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44851,7 +44851,7 @@
         <v>45758.32454861111</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44913,7 +44913,7 @@
         <v>44998.66662037037</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44970,7 +44970,7 @@
         <v>45560.44158564815</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45027,7 +45027,7 @@
         <v>44665</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45089,7 +45089,7 @@
         <v>45142.48359953704</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45151,7 +45151,7 @@
         <v>45076.71652777777</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45545</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>44683</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>45072</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>44631.43116898148</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>44591.59170138889</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>45455</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45565,7 +45565,7 @@
         <v>45089</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45622,7 +45622,7 @@
         <v>44371.45335648148</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45684,7 +45684,7 @@
         <v>44909</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45741,7 +45741,7 @@
         <v>44824</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45803,7 +45803,7 @@
         <v>44890</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45865,7 +45865,7 @@
         <v>44923.82017361111</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45927,7 +45927,7 @@
         <v>44327.61518518518</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45989,7 +45989,7 @@
         <v>44977</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46051,7 +46051,7 @@
         <v>44425.35016203704</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46113,7 +46113,7 @@
         <v>44795.61990740741</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46175,7 +46175,7 @@
         <v>45684</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46232,7 +46232,7 @@
         <v>45621.4350462963</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46294,7 +46294,7 @@
         <v>45621.43712962963</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46356,7 +46356,7 @@
         <v>45621.43855324074</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46418,7 +46418,7 @@
         <v>44949.4377662037</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46475,7 +46475,7 @@
         <v>45176</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46532,7 +46532,7 @@
         <v>45146</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46589,7 +46589,7 @@
         <v>45740.64327546296</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46646,7 +46646,7 @@
         <v>45760.55842592593</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46708,7 +46708,7 @@
         <v>44998</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46765,7 +46765,7 @@
         <v>44522.31700231481</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46822,7 +46822,7 @@
         <v>44376</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46879,7 +46879,7 @@
         <v>45078</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46941,7 +46941,7 @@
         <v>45760.55671296296</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47003,7 +47003,7 @@
         <v>44578</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47060,7 +47060,7 @@
         <v>45213.84846064815</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47117,7 +47117,7 @@
         <v>44810</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47174,7 +47174,7 @@
         <v>45259</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47231,7 +47231,7 @@
         <v>44841.40452546296</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47288,7 +47288,7 @@
         <v>44550</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47345,7 +47345,7 @@
         <v>45337.4219212963</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47402,7 +47402,7 @@
         <v>44923.7849537037</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47464,7 +47464,7 @@
         <v>45225</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47521,7 +47521,7 @@
         <v>45076</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47578,7 +47578,7 @@
         <v>44953.48619212963</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47635,7 +47635,7 @@
         <v>45250.49961805555</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47692,7 +47692,7 @@
         <v>44552.36974537037</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47749,7 +47749,7 @@
         <v>45467.63127314814</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47811,7 +47811,7 @@
         <v>45147.37006944444</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47868,7 +47868,7 @@
         <v>44783.70378472222</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47930,7 +47930,7 @@
         <v>45761.87114583333</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47992,7 +47992,7 @@
         <v>44973</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48054,7 +48054,7 @@
         <v>45007</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48111,7 +48111,7 @@
         <v>45007</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48168,7 +48168,7 @@
         <v>44972</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48230,7 +48230,7 @@
         <v>45213</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48287,7 +48287,7 @@
         <v>45687.8313425926</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48344,7 +48344,7 @@
         <v>44295.63969907408</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48406,7 +48406,7 @@
         <v>45520.56896990741</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48463,7 +48463,7 @@
         <v>44725</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48520,7 +48520,7 @@
         <v>45040</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48577,7 +48577,7 @@
         <v>44915.55423611111</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48634,7 +48634,7 @@
         <v>45097</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48691,7 +48691,7 @@
         <v>44531.61038194445</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48753,7 +48753,7 @@
         <v>45468</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48810,7 +48810,7 @@
         <v>45701.83930555556</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48867,7 +48867,7 @@
         <v>44496.57019675926</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48924,7 +48924,7 @@
         <v>45721</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48986,7 +48986,7 @@
         <v>44938</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49043,7 +49043,7 @@
         <v>45597</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49100,7 +49100,7 @@
         <v>45778.415625</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49157,7 +49157,7 @@
         <v>45778.4108912037</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49214,7 +49214,7 @@
         <v>45562</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49276,7 +49276,7 @@
         <v>45538.71109953704</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49338,7 +49338,7 @@
         <v>45520.51063657407</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49400,7 +49400,7 @@
         <v>45569</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49457,7 +49457,7 @@
         <v>45786.64865740741</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49519,7 +49519,7 @@
         <v>45013.57858796296</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49576,7 +49576,7 @@
         <v>45513.36644675926</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49638,7 +49638,7 @@
         <v>45546.64221064815</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49700,7 +49700,7 @@
         <v>45569</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49757,7 +49757,7 @@
         <v>45574</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49814,7 +49814,7 @@
         <v>45572</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49871,7 +49871,7 @@
         <v>44598.82700231481</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49933,7 +49933,7 @@
         <v>45569.57518518518</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49990,7 +49990,7 @@
         <v>45572.52690972222</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50047,7 +50047,7 @@
         <v>45786.65072916666</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50109,7 +50109,7 @@
         <v>45786.64141203704</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50171,7 +50171,7 @@
         <v>45253.57559027777</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50228,7 +50228,7 @@
         <v>45791.60127314815</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50285,7 +50285,7 @@
         <v>45670</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50342,7 +50342,7 @@
         <v>45499.47106481482</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50404,7 +50404,7 @@
         <v>45456</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         <v>45797.67381944445</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50523,7 +50523,7 @@
         <v>45796</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50585,7 +50585,7 @@
         <v>45796.69207175926</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50642,7 +50642,7 @@
         <v>45460</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50704,7 +50704,7 @@
         <v>45799.66876157407</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50766,7 +50766,7 @@
         <v>45799.56347222222</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50823,7 +50823,7 @@
         <v>45734.38159722222</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50880,7 +50880,7 @@
         <v>45524</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50937,7 +50937,7 @@
         <v>45749.84232638889</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50999,7 +50999,7 @@
         <v>45740.51895833333</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51056,7 +51056,7 @@
         <v>45632.59780092593</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51113,7 +51113,7 @@
         <v>45805.68263888889</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51170,7 +51170,7 @@
         <v>45805.65960648148</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51227,7 +51227,7 @@
         <v>45804.77559027778</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51289,7 +51289,7 @@
         <v>45807.56275462963</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         <v>45807.56612268519</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51403,7 +51403,7 @@
         <v>45811</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51460,7 +51460,7 @@
         <v>45811</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51517,7 +51517,7 @@
         <v>45811.63436342592</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51579,7 +51579,7 @@
         <v>45812.62390046296</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51636,7 +51636,7 @@
         <v>45812.68268518519</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51698,7 +51698,7 @@
         <v>45812.62694444445</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51755,7 +51755,7 @@
         <v>45812.62571759259</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51812,7 +51812,7 @@
         <v>45812.66628472223</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51869,7 +51869,7 @@
         <v>45812.66829861111</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51926,7 +51926,7 @@
         <v>45812.6850462963</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51988,7 +51988,7 @@
         <v>45813.48471064815</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52050,7 +52050,7 @@
         <v>45817.48384259259</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>45817.40178240741</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52174,7 +52174,7 @@
         <v>45817.32150462963</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>

--- a/Översikt ÖSTHAMMAR.xlsx
+++ b/Översikt ÖSTHAMMAR.xlsx
@@ -575,7 +575,7 @@
         <v>45106</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         <v>45660</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>45590</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>45575</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>45439</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>45681</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>46048.35861111111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45106</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>45996.83012731482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>45572</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44482</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>44938</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>45895.55805555556</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>45895.57082175926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45226</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>44771</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45622</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>45746</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>44865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>45746</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>46009</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>46071.65847222223</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>45660</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>44387</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44779</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>45198</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>45076</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>45205</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>45891.56333333333</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44819.44055555556</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>44511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>44614</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45804.79280092593</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44662</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>45076</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>45947.57583333334</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44837</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44727</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>45238</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>46030.66722222222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>44875</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>44684</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>44376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>45617</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>44559</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>45999.56931712963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>45468</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>45190</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>45362.53928240741</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>46056.44011574074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44474</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>44376</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         <v>44739</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>44984.43856481482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>45799.66607638889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>45412</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>44495</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>44515.45704861111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>44778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>45063</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>45425.63697916667</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>45677</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>45898.69215277778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>45840.68208333333</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>45880</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>45362.37055555556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>45975.69306712963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>44555</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>44644</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>45999.58256944444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>46001.47858796296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44729.44149305556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>45468</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44525</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>45063</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>45775.63983796296</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45499</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44813</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>44501</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>44455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44874</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>44991</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>44875</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44536</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>44985</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>45583.33221064815</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>45898.58630787037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>45831.45510416666</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>45078</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44712</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>45070</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9363,7 +9363,7 @@
         <v>44607</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>45520</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>44455</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>45446</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>45957.544375</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>45156</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44517</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44606</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44572.57641203704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>46001.51974537037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>45107</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>44728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>46048.46175925926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>46002</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>46056.38474537037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>45135</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>45013</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>45384</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>45393</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44509</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         <v>44555.80506944445</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11163,7 +11163,7 @@
         <v>44536</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11220,7 +11220,7 @@
         <v>44732.48165509259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         <v>44614</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11334,7 +11334,7 @@
         <v>44729</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44622</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11458,7 +11458,7 @@
         <v>44501.4250462963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>44687.68890046296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>44687</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>44664</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>44651.88756944444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44622</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44644</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44868</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44498</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44491.53787037037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>44838.82126157408</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>44336</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>44577.83829861111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
         <v>44691</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         <v>44461</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>44368</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12400,7 +12400,7 @@
         <v>44661.73925925926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>44525.48695601852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>44649.90252314815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44347</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>44622</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44342.59954861111</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44342.62907407407</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44622</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44613.51798611111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44376.32519675926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44278</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>44588</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>44725.45895833334</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>44852.59962962963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44519.3990162037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44598.8281712963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44450</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44692.49559027778</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44462</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44694</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44659</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44512.6108912037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44432</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44715.91158564815</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44865</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44664</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44757.75236111111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>44861</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44873.67842592593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44589.66446759259</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>44425.37835648148</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44661.74027777778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44734.49601851852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44501.42905092592</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44809</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44809.63373842592</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>44813</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44810</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44635.68695601852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44712.51509259259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>44669.36354166667</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>44687.87017361111</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44728</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>44608</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>44872.62109953703</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44770</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>44739</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>44467</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44620.35590277778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>44578</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44687.86751157408</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44635.39946759259</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>44309.28576388889</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>44676</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44643.4372337963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44669</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44337</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44715</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44466</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>44792</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>44295.65875</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>45669.67625</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44376</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>44814.5991087963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16327,7 +16327,7 @@
         <v>45047</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44860</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>44308</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>45102</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>45044</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>45419.44106481481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>45384</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>44928.40917824074</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>44928.41822916667</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>45462</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>45433</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>45372</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>44890.75795138889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>45394.46115740741</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>45467.63127314814</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>44963.62001157407</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>45519</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>45519</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44466</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>45257</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45138</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44894.68043981482</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>44890</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44973.57263888889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>45154</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>45147.37006944444</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>45545</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
         <v>45482</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44512</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44365</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44978</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>45337.36831018519</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
         <v>44959.83037037037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44916</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44327.61518518518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>45519.81043981481</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>45516.57682870371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>45516.72097222223</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44972</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>45436</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44560.43136574074</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44915.59645833333</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>45329</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44874</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44874</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44586.64851851852</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>45632.59780092593</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>45544</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>45670</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>44665</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>45476.77056712963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>45804.77559027778</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>45805.68263888889</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45805.65960648148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44896.56266203704</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>44896.57527777777</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>45677</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>45678</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>45807.56275462963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>45807.56612268519</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>45812.6850462963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19991,7 +19991,7 @@
         <v>45812.62390046296</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20048,7 +20048,7 @@
         <v>45812.66628472223</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45812.66829861111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>45812.62694444445</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>45811</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>45887.58370370371</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>44501.76855324074</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>44555.80339120371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>45692</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>45812.68268518519</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>45743.42427083333</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>45740.64327546296</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>45811.63436342592</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45812.62571759259</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45097</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45811</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45708</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>45813.48471064815</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>44923.82017361111</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>45817.48454861111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>45894.40133101852</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>45894.34747685185</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>45817.32150462963</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44599</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>45817.48384259259</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>45817.40178240741</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>45813.4278125</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44938</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>45820.39076388889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45202.55721064815</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>45820.39540509259</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45819</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45793.41719907407</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>45820</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>45813.38521990741</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>44915.55423611111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45821.43973379629</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>45821.4384375</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22252,7 +22252,7 @@
         <v>44533.44887731481</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22314,7 +22314,7 @@
         <v>45821.44159722222</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>45813.39273148148</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>45813.39756944445</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45824</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>45895.57736111111</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>45895.53020833333</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>45821.43233796296</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45895.65179398148</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45896.47878472223</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>45825.63803240741</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>45895.53689814815</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>45895.54085648148</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>45895.65013888889</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44943</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>45384.65465277778</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>45797.64908564815</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>45827.40902777778</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>45713.4196875</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>45901.54751157408</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>45830.8558912037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>45797.65774305556</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
         <v>45830.8500462963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>44775</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23655,7 +23655,7 @@
         <v>45797.63553240741</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23712,7 +23712,7 @@
         <v>45812.6672337963</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>45831.45965277778</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>45833.68211805556</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>45833.43527777777</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         <v>44725</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>45817.82967592592</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>45691</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>45832.89476851852</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>45684</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>45835.3554050926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>45448</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>45835.34184027778</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>45842.62363425926</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>45909.48989583334</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>45840.41451388889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>45713</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>45813.37517361111</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         <v>44732.464375</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>44923.7849537037</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24825,7 +24825,7 @@
         <v>45114</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>45840.68381944444</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>45839.37740740741</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>45628.39877314815</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>45909.33440972222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25115,7 +25115,7 @@
         <v>44783.70378472222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>45841.55199074074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25239,7 +25239,7 @@
         <v>45911.68295138889</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25296,7 +25296,7 @@
         <v>45842.98429398148</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25353,7 +25353,7 @@
         <v>45911.66671296296</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25410,7 +25410,7 @@
         <v>45842.97236111111</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25467,7 +25467,7 @@
         <v>44591.51854166666</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25529,7 +25529,7 @@
         <v>44631.92662037037</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>45807</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44991.9321412037</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>45076</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>45680</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25829,7 +25829,7 @@
         <v>45680</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25891,7 +25891,7 @@
         <v>45012.7975</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25953,7 +25953,7 @@
         <v>44496.57019675926</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>45271</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26067,7 +26067,7 @@
         <v>45719.59866898148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
         <v>45467</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>45617</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>45770.65739583333</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>45063.47773148148</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26357,7 +26357,7 @@
         <v>45916.66152777777</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45455</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44361</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>45695</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>45918.54903935185</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45919.40252314815</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>45759.56462962963</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>45712.59412037037</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>44308</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>45621.43098379629</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>45621.4350462963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45621.43712962963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>45866.48244212963</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>45919.39731481481</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27185,7 +27185,7 @@
         <v>45923.44583333333</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>45923.44844907407</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27309,7 +27309,7 @@
         <v>45924.39706018518</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27366,7 +27366,7 @@
         <v>45924.52010416667</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>45102.59896990741</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>45187.71274305556</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>45924.52100694444</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27614,7 +27614,7 @@
         <v>45923.44094907407</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27676,7 +27676,7 @@
         <v>45005</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27733,7 +27733,7 @@
         <v>45869.4290625</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>44803.78524305556</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27852,7 +27852,7 @@
         <v>45659</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>44687.78673611111</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>45076.71652777777</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>45666</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>45872</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>45930.56592592593</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45930.56607638889</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>45930.56626157407</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>45721</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45927.00606481481</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45872.47782407407</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28499,7 +28499,7 @@
         <v>45686</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>45755.64612268518</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28623,7 +28623,7 @@
         <v>45872</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28685,7 +28685,7 @@
         <v>45872.48738425926</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         <v>44371.45335648148</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>44376.52438657408</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         <v>45931.47211805556</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28923,7 +28923,7 @@
         <v>45880</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28980,7 +28980,7 @@
         <v>45880.70917824074</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29037,7 +29037,7 @@
         <v>45685.66459490741</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29094,7 +29094,7 @@
         <v>44613</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29151,7 +29151,7 @@
         <v>45691</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29213,7 +29213,7 @@
         <v>45931.47542824074</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29270,7 +29270,7 @@
         <v>44970.39591435185</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29327,7 +29327,7 @@
         <v>45880.7505787037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>45678</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29441,7 +29441,7 @@
         <v>45758.32872685185</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>45758.33064814815</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         <v>45936</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29622,7 +29622,7 @@
         <v>44495</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29684,7 +29684,7 @@
         <v>45762.5966087963</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29741,7 +29741,7 @@
         <v>45936.55887731481</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>45110.43907407407</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>45937.43274305556</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29922,7 +29922,7 @@
         <v>45937.43621527778</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29984,7 +29984,7 @@
         <v>44991</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>45007</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30103,7 +30103,7 @@
         <v>45805.67305555556</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30160,7 +30160,7 @@
         <v>45250.58635416667</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>45940.37303240741</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>45929.5775</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>45939.58928240741</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30388,7 +30388,7 @@
         <v>44531.61038194445</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30450,7 +30450,7 @@
         <v>45212.71241898148</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30512,7 +30512,7 @@
         <v>45213</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30569,7 +30569,7 @@
         <v>45760.55671296296</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30631,7 +30631,7 @@
         <v>45760.55842592593</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30693,7 +30693,7 @@
         <v>44596.63290509259</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30750,7 +30750,7 @@
         <v>45233</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30812,7 +30812,7 @@
         <v>45758.32454861111</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30874,7 +30874,7 @@
         <v>45735</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>45950.45677083333</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44461</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>45949.71568287037</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>45947.57833333333</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>45259</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31231,7 +31231,7 @@
         <v>45949.00917824074</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31288,7 +31288,7 @@
         <v>45949.70971064815</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31350,7 +31350,7 @@
         <v>45948.99313657408</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31407,7 +31407,7 @@
         <v>45646.47936342593</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31464,7 +31464,7 @@
         <v>45951.56679398148</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31526,7 +31526,7 @@
         <v>45089</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31583,7 +31583,7 @@
         <v>45740.64078703704</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31640,7 +31640,7 @@
         <v>45761.53104166667</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31702,7 +31702,7 @@
         <v>45761.54925925926</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>45904.50652777778</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31821,7 +31821,7 @@
         <v>45751</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31878,7 +31878,7 @@
         <v>45953.67853009259</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>45090.63300925926</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32002,7 +32002,7 @@
         <v>45054</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         <v>45560.44158564815</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32116,7 +32116,7 @@
         <v>44578</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32173,7 +32173,7 @@
         <v>45040.47081018519</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32230,7 +32230,7 @@
         <v>44903</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>45379.61878472222</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32349,7 +32349,7 @@
         <v>44953.48179398148</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32406,7 +32406,7 @@
         <v>45960.64431712963</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32468,7 +32468,7 @@
         <v>45960.64520833334</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>45960</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32587,7 +32587,7 @@
         <v>45961</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32644,7 +32644,7 @@
         <v>45960</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32701,7 +32701,7 @@
         <v>45040</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32758,7 +32758,7 @@
         <v>45960</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32815,7 +32815,7 @@
         <v>45965.74545138889</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>44522.31700231481</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>45075</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32991,7 +32991,7 @@
         <v>44909</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>45964.63251157408</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33105,7 +33105,7 @@
         <v>45966.37258101852</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>45966.37548611111</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>45358</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33281,7 +33281,7 @@
         <v>45520.56896990741</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33338,7 +33338,7 @@
         <v>45968.48032407407</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33395,7 +33395,7 @@
         <v>45530.68873842592</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33457,7 +33457,7 @@
         <v>45162.6177662037</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33519,7 +33519,7 @@
         <v>44972.34811342593</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33581,7 +33581,7 @@
         <v>45572</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33638,7 +33638,7 @@
         <v>45589.58766203704</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33695,7 +33695,7 @@
         <v>44560.4502199074</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33757,7 +33757,7 @@
         <v>45969.76908564815</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33819,7 +33819,7 @@
         <v>45123.88789351852</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33881,7 +33881,7 @@
         <v>45520.50712962963</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33943,7 +33943,7 @@
         <v>45972.66209490741</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>44973.66458333333</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>44977</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34124,7 +34124,7 @@
         <v>45670</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>45975.54730324074</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>45975</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>45975.4581712963</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34352,7 +34352,7 @@
         <v>45975.65431712963</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34409,7 +34409,7 @@
         <v>45978.36157407407</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         <v>45978.62611111111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34523,7 +34523,7 @@
         <v>45978.37162037037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34580,7 +34580,7 @@
         <v>45978.46484953703</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34637,7 +34637,7 @@
         <v>45978.36700231482</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34694,7 +34694,7 @@
         <v>45978.36412037037</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>44553.80824074074</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34818,7 +34818,7 @@
         <v>45975.64628472222</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34875,7 +34875,7 @@
         <v>45978.36677083333</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>45979.635625</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34999,7 +34999,7 @@
         <v>44552.36974537037</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35056,7 +35056,7 @@
         <v>45114.79793981482</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35118,7 +35118,7 @@
         <v>45979.65149305556</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35175,7 +35175,7 @@
         <v>45079.50289351852</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35232,7 +35232,7 @@
         <v>45148.64976851852</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35294,7 +35294,7 @@
         <v>45979.51086805556</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35351,7 +35351,7 @@
         <v>45981.78886574074</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35413,7 +35413,7 @@
         <v>44952</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35470,7 +35470,7 @@
         <v>45981.78840277778</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35532,7 +35532,7 @@
         <v>45670</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35594,7 +35594,7 @@
         <v>45146.68921296296</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35656,7 +35656,7 @@
         <v>45468</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35713,7 +35713,7 @@
         <v>45572</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35770,7 +35770,7 @@
         <v>44591.59170138889</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>45758.33304398148</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45985.56244212963</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>45720.41847222222</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>45575.58836805556</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>45191</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36127,7 +36127,7 @@
         <v>45341.70582175926</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36184,7 +36184,7 @@
         <v>44588</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>45609.55065972222</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36298,7 +36298,7 @@
         <v>44598.82957175926</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>45107</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44644</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44602</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36541,7 +36541,7 @@
         <v>45992.57668981481</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36603,7 +36603,7 @@
         <v>45992.57708333333</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36665,7 +36665,7 @@
         <v>45992.50333333333</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36727,7 +36727,7 @@
         <v>44643</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36784,7 +36784,7 @@
         <v>45712.57872685185</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36841,7 +36841,7 @@
         <v>45992.50802083333</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36903,7 +36903,7 @@
         <v>45711.51902777778</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36965,7 +36965,7 @@
         <v>45711.53565972222</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         <v>45996.3543287037</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37084,7 +37084,7 @@
         <v>45979.51591435185</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37141,7 +37141,7 @@
         <v>45225.76836805556</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37198,7 +37198,7 @@
         <v>45999.59837962963</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37255,7 +37255,7 @@
         <v>46040.90493055555</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37312,7 +37312,7 @@
         <v>45996.83506944445</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37369,7 +37369,7 @@
         <v>45692</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         <v>46039.39636574074</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37488,7 +37488,7 @@
         <v>45082.62603009259</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37545,7 +37545,7 @@
         <v>46000.66645833333</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37607,7 +37607,7 @@
         <v>44795.61990740741</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37669,7 +37669,7 @@
         <v>45736</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37726,7 +37726,7 @@
         <v>46043.35760416667</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37783,7 +37783,7 @@
         <v>45197.49262731482</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37840,7 +37840,7 @@
         <v>45387.3503125</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37897,7 +37897,7 @@
         <v>46044.33802083333</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37959,7 +37959,7 @@
         <v>46043.41212962963</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38016,7 +38016,7 @@
         <v>45621.42747685185</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38078,7 +38078,7 @@
         <v>44805.63708333333</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38135,7 +38135,7 @@
         <v>45230.76862268519</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38192,7 +38192,7 @@
         <v>45230.77258101852</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38249,7 +38249,7 @@
         <v>46000.53084490741</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38311,7 +38311,7 @@
         <v>46043.781875</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38368,7 +38368,7 @@
         <v>46000.53493055556</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38430,7 +38430,7 @@
         <v>46000.6669675926</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38492,7 +38492,7 @@
         <v>44706</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38549,7 +38549,7 @@
         <v>44651.5625</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         <v>44609</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38668,7 +38668,7 @@
         <v>45687.8313425926</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38725,7 +38725,7 @@
         <v>45239</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38782,7 +38782,7 @@
         <v>44643.93269675926</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38844,7 +38844,7 @@
         <v>46048.00856481482</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38906,7 +38906,7 @@
         <v>45195</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38963,7 +38963,7 @@
         <v>45162</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39025,7 +39025,7 @@
         <v>45711.52333333333</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39087,7 +39087,7 @@
         <v>46003.35675925926</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39144,7 +39144,7 @@
         <v>45758.32645833334</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39206,7 +39206,7 @@
         <v>45775.44483796296</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39263,7 +39263,7 @@
         <v>44684</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39320,7 +39320,7 @@
         <v>45685.68193287037</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39377,7 +39377,7 @@
         <v>45093</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39434,7 +39434,7 @@
         <v>44676</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39491,7 +39491,7 @@
         <v>45455</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39553,7 +39553,7 @@
         <v>45358</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39615,7 +39615,7 @@
         <v>44895.36748842592</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>46008.57596064815</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39734,7 +39734,7 @@
         <v>45202</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>44664</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39848,7 +39848,7 @@
         <v>44746.65873842593</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39905,7 +39905,7 @@
         <v>44660.4987962963</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39967,7 +39967,7 @@
         <v>45720.39715277778</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40024,7 +40024,7 @@
         <v>46056.38925925926</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40086,7 +40086,7 @@
         <v>46056.4025</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40148,7 +40148,7 @@
         <v>46056.65564814815</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40210,7 +40210,7 @@
         <v>46056.52885416667</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40272,7 +40272,7 @@
         <v>46055.45547453704</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40334,7 +40334,7 @@
         <v>44651.40924768519</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40396,7 +40396,7 @@
         <v>44810</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40453,7 +40453,7 @@
         <v>46056.85776620371</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40510,7 +40510,7 @@
         <v>45770.4015625</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40572,7 +40572,7 @@
         <v>45176</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40629,7 +40629,7 @@
         <v>44783.69886574074</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40691,7 +40691,7 @@
         <v>45174.62788194444</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40753,7 +40753,7 @@
         <v>46056.39921296296</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>45212.71481481481</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>46057.46614583334</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40934,7 +40934,7 @@
         <v>45757.40733796296</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45194.57125</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41058,7 +41058,7 @@
         <v>45233.33221064815</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41120,7 +41120,7 @@
         <v>46058.58392361111</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41182,7 +41182,7 @@
         <v>46058.6049537037</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41244,7 +41244,7 @@
         <v>45759.56894675926</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41301,7 +41301,7 @@
         <v>45760.55626157407</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>45712</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>44739</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>45702.47630787037</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41539,7 +41539,7 @@
         <v>44770.42166666667</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41601,7 +41601,7 @@
         <v>45761.54710648148</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41663,7 +41663,7 @@
         <v>44841.40452546296</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>44755</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>46062.67241898148</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>46063.57956018519</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41891,7 +41891,7 @@
         <v>46064.56945601852</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41948,7 +41948,7 @@
         <v>46063.54009259259</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42005,7 +42005,7 @@
         <v>45772</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42062,7 +42062,7 @@
         <v>45225</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42119,7 +42119,7 @@
         <v>46064.54721064815</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42176,7 +42176,7 @@
         <v>46063.70094907407</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42233,7 +42233,7 @@
         <v>45362.36296296296</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42290,7 +42290,7 @@
         <v>44775.400625</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42347,7 +42347,7 @@
         <v>45203</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42409,7 +42409,7 @@
         <v>45007.37081018519</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         <v>44796.66613425926</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42528,7 +42528,7 @@
         <v>46066.58792824074</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>46065.60075231481</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42647,7 +42647,7 @@
         <v>46065.58760416666</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42709,7 +42709,7 @@
         <v>44476.3632175926</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42771,7 +42771,7 @@
         <v>45746</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42828,7 +42828,7 @@
         <v>45054.65834490741</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         <v>45337.4219212963</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42942,7 +42942,7 @@
         <v>46026.84339120371</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42999,7 +42999,7 @@
         <v>45712.47983796296</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43056,7 +43056,7 @@
         <v>45743.67333333333</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43113,7 +43113,7 @@
         <v>46027.66442129629</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43175,7 +43175,7 @@
         <v>46027.49130787037</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43237,7 +43237,7 @@
         <v>46027.6659375</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43299,7 +43299,7 @@
         <v>45834.67556712963</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43356,7 +43356,7 @@
         <v>46072.36732638889</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43418,7 +43418,7 @@
         <v>45259</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43475,7 +43475,7 @@
         <v>46030.58104166666</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43532,7 +43532,7 @@
         <v>44496</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>46072.36847222222</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         <v>46029.56026620371</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43713,7 +43713,7 @@
         <v>46029.57829861111</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43775,7 +43775,7 @@
         <v>45758.33583333333</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43837,7 +43837,7 @@
         <v>45208.70452546296</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43894,7 +43894,7 @@
         <v>45520</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43956,7 +43956,7 @@
         <v>46031.63748842593</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44018,7 +44018,7 @@
         <v>45520</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44080,7 +44080,7 @@
         <v>45045</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44142,7 +44142,7 @@
         <v>46034</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44199,7 +44199,7 @@
         <v>46034</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44256,7 +44256,7 @@
         <v>46031.46616898148</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44318,7 +44318,7 @@
         <v>45496</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44380,7 +44380,7 @@
         <v>44979</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44442,7 +44442,7 @@
         <v>46035.55158564815</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>45520</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>44586</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44623,7 +44623,7 @@
         <v>44973</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>44993.60099537037</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>44308</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>44341.590625</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         <v>44287</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>45040</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44980,7 +44980,7 @@
         <v>44330</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45037,7 +45037,7 @@
         <v>44874.38325231482</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45094,7 +45094,7 @@
         <v>44572.5827662037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45151,7 +45151,7 @@
         <v>44949.4377662037</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45208,7 +45208,7 @@
         <v>44953.48619212963</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45265,7 +45265,7 @@
         <v>45112.86422453704</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>44613.77238425926</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>46050</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>44631.43116898148</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>46037.58893518519</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>46037.59137731481</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>45462</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45679,7 +45679,7 @@
         <v>44905.50363425926</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45736,7 +45736,7 @@
         <v>45090</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45798,7 +45798,7 @@
         <v>45244.56943287037</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45855,7 +45855,7 @@
         <v>44523</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45912,7 +45912,7 @@
         <v>45107</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45974,7 +45974,7 @@
         <v>44511</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>44295.63969907408</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46093,7 +46093,7 @@
         <v>45007</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46150,7 +46150,7 @@
         <v>45282</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46212,7 +46212,7 @@
         <v>44515</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46274,7 +46274,7 @@
         <v>44576.78626157407</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>44655.80475694445</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>44998</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46450,7 +46450,7 @@
         <v>45561</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46512,7 +46512,7 @@
         <v>44660.91659722223</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46574,7 +46574,7 @@
         <v>45669.69075231482</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46631,7 +46631,7 @@
         <v>44963</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46688,7 +46688,7 @@
         <v>45691</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46745,7 +46745,7 @@
         <v>44515</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46807,7 +46807,7 @@
         <v>45670.47300925926</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46869,7 +46869,7 @@
         <v>44915.59418981482</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46926,7 +46926,7 @@
         <v>45154.55175925926</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46983,7 +46983,7 @@
         <v>44600.35755787037</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47040,7 +47040,7 @@
         <v>44599.72306712963</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47097,7 +47097,7 @@
         <v>44950</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47159,7 +47159,7 @@
         <v>45194.59335648148</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47221,7 +47221,7 @@
         <v>45568</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47278,7 +47278,7 @@
         <v>44908.69575231482</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47335,7 +47335,7 @@
         <v>44591</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47392,7 +47392,7 @@
         <v>45684</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47449,7 +47449,7 @@
         <v>44425.35016203704</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47511,7 +47511,7 @@
         <v>45152.37296296296</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47568,7 +47568,7 @@
         <v>45102.58728009259</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47630,7 +47630,7 @@
         <v>45146</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47687,7 +47687,7 @@
         <v>45665.58465277778</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47749,7 +47749,7 @@
         <v>44523.46197916667</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47806,7 +47806,7 @@
         <v>44725</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47863,7 +47863,7 @@
         <v>44726.42716435185</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47920,7 +47920,7 @@
         <v>45213.84846064815</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47977,7 +47977,7 @@
         <v>45142.48359953704</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48039,7 +48039,7 @@
         <v>45218.5586574074</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48096,7 +48096,7 @@
         <v>44775</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48153,7 +48153,7 @@
         <v>45593</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48210,7 +48210,7 @@
         <v>44683</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48267,7 +48267,7 @@
         <v>45068</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48324,7 +48324,7 @@
         <v>45733.41601851852</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48381,7 +48381,7 @@
         <v>45096.65381944444</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48443,7 +48443,7 @@
         <v>45102.33054398148</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48505,7 +48505,7 @@
         <v>45170.45050925926</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48562,7 +48562,7 @@
         <v>44987</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         <v>44768.88685185185</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48681,7 +48681,7 @@
         <v>45072</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48738,7 +48738,7 @@
         <v>44991.62203703704</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48795,7 +48795,7 @@
         <v>44824</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48857,7 +48857,7 @@
         <v>45695</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48934,7 +48934,7 @@
         <v>45063.65543981481</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48996,7 +48996,7 @@
         <v>45337.41784722222</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49053,7 +49053,7 @@
         <v>45250.49961805555</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49110,7 +49110,7 @@
         <v>44715</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49167,7 +49167,7 @@
         <v>44482.47577546296</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49224,7 +49224,7 @@
         <v>44550</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49281,7 +49281,7 @@
         <v>45078</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49343,7 +49343,7 @@
         <v>44998.66662037037</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49400,7 +49400,7 @@
         <v>45692</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49457,7 +49457,7 @@
         <v>45574.65427083334</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49514,7 +49514,7 @@
         <v>44970</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49571,7 +49571,7 @@
         <v>44809</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49628,7 +49628,7 @@
         <v>44981</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49690,7 +49690,7 @@
         <v>45621.4405787037</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49752,7 +49752,7 @@
         <v>45093.47947916666</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49814,7 +49814,7 @@
         <v>44525</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49871,7 +49871,7 @@
         <v>45621.43855324074</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49933,7 +49933,7 @@
         <v>45761.87114583333</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49995,7 +49995,7 @@
         <v>45160</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50052,7 +50052,7 @@
         <v>45701.83930555556</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50109,7 +50109,7 @@
         <v>45225</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50166,7 +50166,7 @@
         <v>45597</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50223,7 +50223,7 @@
         <v>44938</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50280,7 +50280,7 @@
         <v>45778.4108912037</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50337,7 +50337,7 @@
         <v>45778.415625</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50394,7 +50394,7 @@
         <v>45562</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50456,7 +50456,7 @@
         <v>45574</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50513,7 +50513,7 @@
         <v>45786.64865740741</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50575,7 +50575,7 @@
         <v>45538.71109953704</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50637,7 +50637,7 @@
         <v>45786.64141203704</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50699,7 +50699,7 @@
         <v>45253.57559027777</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50756,7 +50756,7 @@
         <v>45569</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50813,7 +50813,7 @@
         <v>45546.64221064815</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50875,7 +50875,7 @@
         <v>45572.52690972222</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50932,7 +50932,7 @@
         <v>45786.65072916666</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50994,7 +50994,7 @@
         <v>44598.82700231481</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51056,7 +51056,7 @@
         <v>45569</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51113,7 +51113,7 @@
         <v>45569.57518518518</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51170,7 +51170,7 @@
         <v>45513.36644675926</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51232,7 +51232,7 @@
         <v>45013.57858796296</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51289,7 +51289,7 @@
         <v>45520.51063657407</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51351,7 +51351,7 @@
         <v>45572</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51408,7 +51408,7 @@
         <v>45791.60127314815</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51465,7 +51465,7 @@
         <v>45460</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51527,7 +51527,7 @@
         <v>45796</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51589,7 +51589,7 @@
         <v>45456</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51651,7 +51651,7 @@
         <v>45670</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51708,7 +51708,7 @@
         <v>45796.69207175926</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51765,7 +51765,7 @@
         <v>45499.47106481482</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51827,7 +51827,7 @@
         <v>45797.67381944445</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51884,7 +51884,7 @@
         <v>45799.66876157407</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51946,7 +51946,7 @@
         <v>45799.56347222222</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52003,7 +52003,7 @@
         <v>45749.84232638889</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52065,7 +52065,7 @@
         <v>45524</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52122,7 +52122,7 @@
         <v>45740.51895833333</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52179,7 +52179,7 @@
         <v>45734.38159722222</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
